--- a/chatbotp3r3/eloss3and4levelNet.xlsx
+++ b/chatbotp3r3/eloss3and4levelNet.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
   <si>
     <t>Epoch</t>
   </si>
@@ -33,6 +33,9 @@
   </si>
   <si>
     <t>Loss 4L</t>
+  </si>
+  <si>
+    <t>Diff</t>
   </si>
 </sst>
 </file>
@@ -846,63 +849,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="100"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-8.3076085120596374E-2"/>
-                  <c:y val="2.4315097867668504E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$108</c:f>
+              <c:f>Sheet1!$A$2:$A$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
                   <c:v>0.4</c:v>
                 </c:pt>
@@ -1139,16 +1091,166 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>99</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>102</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>103</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>104</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>105</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>108</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>110</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>123</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$108</c:f>
+              <c:f>Sheet1!$B$2:$B$138</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="137"/>
                 <c:pt idx="0">
                   <c:v>4.1950000000000003</c:v>
                 </c:pt>
@@ -1385,6 +1487,132 @@
                 </c:pt>
                 <c:pt idx="78">
                   <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.391</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.389</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.391</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.38</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3660000000000001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.369</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.367</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3560000000000001</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.351</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3380000000000001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.333</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.3360000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.331</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.3220000000000001</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>1.323</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>1.3169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>1.3129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>1.3140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.296</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.2909999999999999</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.2849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.284</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.2849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.274</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.2769999999999999</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.272</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1432,63 +1660,12 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent2"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="log"/>
-            <c:forward val="40"/>
-            <c:dispRSqr val="0"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-4.4845831364354945E-2"/>
-                  <c:y val="-6.7440099399339787E-2"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$108</c:f>
+              <c:f>Sheet1!$D$2:$D$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -1809,16 +1986,163 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$108</c:f>
+              <c:f>Sheet1!$E$2:$E$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="107"/>
+                <c:ptCount val="156"/>
                 <c:pt idx="0">
                   <c:v>5.5010000000000003</c:v>
                 </c:pt>
@@ -2139,6 +2463,153 @@
                 </c:pt>
                 <c:pt idx="106">
                   <c:v>1.431</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>1.3740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>1.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>1.369</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>1.357</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>1.355</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>1.3540000000000001</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>1.3480000000000001</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>1.343</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>1.335</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>1.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>1.3340000000000001</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>1.3280000000000001</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>1.33</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>1.323</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>1.32</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>1.323</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>1.3169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>1.3120000000000001</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>1.3089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>1.306</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>1.304</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>1.2949999999999999</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>1.302</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>1.298</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>1.2969999999999999</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>1.2929999999999999</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>1.2809999999999999</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>1.2849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>1.282</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>1.2789999999999999</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>1.268</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>1.2709999999999999</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>1.2649999999999999</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>1.27</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>1.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>1.262</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>1.254</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>1.2509999999999999</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>1.254</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>1.254</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>1.2490000000000001</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>1.246</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>1.25</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2282,6 +2753,7 @@
         <c:axId val="474994784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="1"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2471,6 +2943,971 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Diff</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$D$2:$D$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="112"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$113</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="112"/>
+                <c:pt idx="0">
+                  <c:v>-1.306</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-0.74299999999999944</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-0.47399999999999975</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.34699999999999953</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-0.2629999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-0.28000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-0.27400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-0.41199999999999992</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-0.58400000000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-0.7200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-0.68800000000000017</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-0.62200000000000033</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-0.59299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-0.58899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-0.5860000000000003</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-0.59199999999999964</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-0.59399999999999986</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-0.59799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-0.61499999999999977</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-0.62199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-0.621</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-0.60499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-0.6080000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-0.59999999999999964</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-0.59799999999999986</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-0.59600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-0.58399999999999985</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-0.58599999999999985</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-0.56299999999999994</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-0.55699999999999994</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-0.54399999999999982</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-0.53000000000000025</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-0.53399999999999981</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-0.51200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-0.5</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-0.50299999999999989</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-0.49</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-0.47899999999999987</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-0.47499999999999987</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-0.46299999999999986</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-0.44900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-0.44600000000000017</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-0.43199999999999994</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-0.41899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-0.41099999999999981</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-0.41299999999999981</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-0.39999999999999991</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-0.39100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-0.38500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-0.375</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-0.37199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-0.3640000000000001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-0.34800000000000009</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-0.34200000000000008</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-0.33100000000000018</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-0.33200000000000007</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-0.30400000000000005</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-0.31600000000000006</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-0.30899999999999994</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-0.29499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-0.29499999999999993</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-0.28599999999999981</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-0.28399999999999981</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-0.27600000000000002</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-0.27</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-0.26400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-0.25099999999999989</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-0.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-0.24299999999999988</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-0.23299999999999987</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-0.23799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-0.21999999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-0.22300000000000009</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-0.21100000000000008</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-0.20500000000000007</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-0.20300000000000007</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-0.21199999999999997</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-0.19900000000000007</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-0.18599999999999994</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-0.19000000000000017</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-0.19699999999999984</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-0.18999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-0.17599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-0.17199999999999993</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-0.18099999999999983</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-0.16899999999999982</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-0.16799999999999993</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-0.16599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-0.16500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-0.15500000000000003</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-0.16699999999999982</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-0.16000000000000014</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-0.1419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-0.14500000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-0.14700000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-0.14300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-0.14300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-0.13800000000000012</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>-0.13700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-0.129</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-0.12199999999999989</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-0.13100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-7.8000000000000069E-2</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-7.3000000000000176E-2</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-7.0999999999999952E-2</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-6.2000000000000055E-2</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-6.4000000000000057E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A7E7-457E-9F48-09B96029BE0A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="474593584"/>
+        <c:axId val="449905792"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="474593584"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="449905792"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="449905792"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="474593584"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2551,6 +3988,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -3583,20 +5060,536 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>285750</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>80010</xdr:colOff>
       <xdr:row>43</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>377190</xdr:colOff>
-      <xdr:row>58</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>49530</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3623,16 +5616,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>476250</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>106680</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>243840</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>163830</xdr:rowOff>
+      <xdr:rowOff>99060</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3654,6 +5647,44 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB2D331-E5D5-456B-8F30-A5978F6F9639}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -3959,15 +5990,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E108"/>
+  <dimension ref="A1:F160"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C80"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3980,8 +6011,11 @@
       <c r="E1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.4</v>
       </c>
@@ -3997,8 +6031,12 @@
       <c r="E2">
         <v>5.5010000000000003</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F2">
+        <f>B2-E2</f>
+        <v>-1.306</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -4014,8 +6052,12 @@
       <c r="E3">
         <v>4.84</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F3">
+        <f t="shared" ref="F3:F66" si="0">B3-E3</f>
+        <v>-0.74299999999999944</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -4031,8 +6073,12 @@
       <c r="E4">
         <v>4.4669999999999996</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F4">
+        <f t="shared" si="0"/>
+        <v>-0.47399999999999975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -4048,8 +6094,12 @@
       <c r="E5">
         <v>4.2809999999999997</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F5">
+        <f t="shared" si="0"/>
+        <v>-0.34699999999999953</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -4065,8 +6115,12 @@
       <c r="E6">
         <v>4.1459999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F6">
+        <f t="shared" si="0"/>
+        <v>-0.2629999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -4082,8 +6136,12 @@
       <c r="E7">
         <v>4.0880000000000001</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F7">
+        <f t="shared" si="0"/>
+        <v>-0.28000000000000025</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1</v>
       </c>
@@ -4099,8 +6157,12 @@
       <c r="E8">
         <v>4.032</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F8">
+        <f t="shared" si="0"/>
+        <v>-0.27400000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2</v>
       </c>
@@ -4116,8 +6178,12 @@
       <c r="E9">
         <v>3.9889999999999999</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>-0.41199999999999992</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>3</v>
       </c>
@@ -4133,8 +6199,12 @@
       <c r="E10">
         <v>3.9550000000000001</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F10">
+        <f t="shared" si="0"/>
+        <v>-0.58400000000000007</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4</v>
       </c>
@@ -4150,8 +6220,12 @@
       <c r="E11">
         <v>3.9390000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F11">
+        <f t="shared" si="0"/>
+        <v>-0.7200000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
@@ -4167,8 +6241,12 @@
       <c r="E12">
         <v>3.762</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>-0.68800000000000017</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6</v>
       </c>
@@ -4184,8 +6262,12 @@
       <c r="E13">
         <v>3.5670000000000002</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F13">
+        <f t="shared" si="0"/>
+        <v>-0.62200000000000033</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>7</v>
       </c>
@@ -4201,8 +6283,12 @@
       <c r="E14">
         <v>3.43</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F14">
+        <f t="shared" si="0"/>
+        <v>-0.59299999999999997</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>8</v>
       </c>
@@ -4218,8 +6304,12 @@
       <c r="E15">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F15">
+        <f t="shared" si="0"/>
+        <v>-0.58899999999999997</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>9</v>
       </c>
@@ -4235,8 +6325,12 @@
       <c r="E16">
         <v>3.2330000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F16">
+        <f t="shared" si="0"/>
+        <v>-0.5860000000000003</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>10</v>
       </c>
@@ -4252,8 +6346,12 @@
       <c r="E17">
         <v>3.1469999999999998</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F17">
+        <f t="shared" si="0"/>
+        <v>-0.59199999999999964</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>11</v>
       </c>
@@ -4269,8 +6367,12 @@
       <c r="E18">
         <v>3.08</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F18">
+        <f t="shared" si="0"/>
+        <v>-0.59399999999999986</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>12</v>
       </c>
@@ -4286,8 +6388,12 @@
       <c r="E19">
         <v>3.008</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F19">
+        <f t="shared" si="0"/>
+        <v>-0.59799999999999986</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -4303,8 +6409,12 @@
       <c r="E20">
         <v>2.9649999999999999</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F20">
+        <f t="shared" si="0"/>
+        <v>-0.61499999999999977</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>14</v>
       </c>
@@ -4320,8 +6430,12 @@
       <c r="E21">
         <v>2.911</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F21">
+        <f t="shared" si="0"/>
+        <v>-0.62199999999999989</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>15</v>
       </c>
@@ -4337,8 +6451,12 @@
       <c r="E22">
         <v>2.8570000000000002</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F22">
+        <f t="shared" si="0"/>
+        <v>-0.621</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>16</v>
       </c>
@@ -4354,8 +6472,12 @@
       <c r="E23">
         <v>2.7919999999999998</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F23">
+        <f t="shared" si="0"/>
+        <v>-0.60499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>17</v>
       </c>
@@ -4371,8 +6493,12 @@
       <c r="E24">
         <v>2.7490000000000001</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F24">
+        <f t="shared" si="0"/>
+        <v>-0.6080000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>18</v>
       </c>
@@ -4388,8 +6514,12 @@
       <c r="E25">
         <v>2.7029999999999998</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F25">
+        <f t="shared" si="0"/>
+        <v>-0.59999999999999964</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>19</v>
       </c>
@@ -4405,8 +6535,12 @@
       <c r="E26">
         <v>2.6619999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F26">
+        <f t="shared" si="0"/>
+        <v>-0.59799999999999986</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -4422,8 +6556,12 @@
       <c r="E27">
         <v>2.6240000000000001</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27">
+        <f t="shared" si="0"/>
+        <v>-0.59600000000000009</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>21</v>
       </c>
@@ -4439,8 +6577,12 @@
       <c r="E28">
         <v>2.581</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28">
+        <f t="shared" si="0"/>
+        <v>-0.58399999999999985</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>22</v>
       </c>
@@ -4456,8 +6598,12 @@
       <c r="E29">
         <v>2.5449999999999999</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29">
+        <f t="shared" si="0"/>
+        <v>-0.58599999999999985</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>23</v>
       </c>
@@ -4473,8 +6619,12 @@
       <c r="E30">
         <v>2.5049999999999999</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30">
+        <f t="shared" si="0"/>
+        <v>-0.57099999999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>24</v>
       </c>
@@ -4490,8 +6640,12 @@
       <c r="E31">
         <v>2.4649999999999999</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31">
+        <f t="shared" si="0"/>
+        <v>-0.56299999999999994</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>25</v>
       </c>
@@ -4507,8 +6661,12 @@
       <c r="E32">
         <v>2.431</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F32">
+        <f t="shared" si="0"/>
+        <v>-0.55699999999999994</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>26</v>
       </c>
@@ -4524,8 +6682,12 @@
       <c r="E33">
         <v>2.4009999999999998</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F33">
+        <f t="shared" si="0"/>
+        <v>-0.54399999999999982</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>27</v>
       </c>
@@ -4541,8 +6703,12 @@
       <c r="E34">
         <v>2.3650000000000002</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F34">
+        <f t="shared" si="0"/>
+        <v>-0.53000000000000025</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>28</v>
       </c>
@@ -4558,8 +6724,12 @@
       <c r="E35">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F35">
+        <f t="shared" si="0"/>
+        <v>-0.53399999999999981</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>29</v>
       </c>
@@ -4575,8 +6745,12 @@
       <c r="E36">
         <v>2.302</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F36">
+        <f t="shared" si="0"/>
+        <v>-0.51200000000000001</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>30</v>
       </c>
@@ -4592,8 +6766,12 @@
       <c r="E37">
         <v>2.2749999999999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F37">
+        <f t="shared" si="0"/>
+        <v>-0.5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>31</v>
       </c>
@@ -4609,8 +6787,12 @@
       <c r="E38">
         <v>2.2589999999999999</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F38">
+        <f t="shared" si="0"/>
+        <v>-0.50299999999999989</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>32</v>
       </c>
@@ -4626,8 +6808,12 @@
       <c r="E39">
         <v>2.2250000000000001</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F39">
+        <f t="shared" si="0"/>
+        <v>-0.49</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>33</v>
       </c>
@@ -4643,8 +6829,12 @@
       <c r="E40">
         <v>2.198</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F40">
+        <f t="shared" si="0"/>
+        <v>-0.47899999999999987</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>34</v>
       </c>
@@ -4660,8 +6850,12 @@
       <c r="E41">
         <v>2.1789999999999998</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F41">
+        <f t="shared" si="0"/>
+        <v>-0.47499999999999987</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>35</v>
       </c>
@@ -4677,8 +6871,12 @@
       <c r="E42">
         <v>2.1459999999999999</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F42">
+        <f t="shared" si="0"/>
+        <v>-0.46299999999999986</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>36</v>
       </c>
@@ -4694,8 +6892,12 @@
       <c r="E43">
         <v>2.125</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F43">
+        <f t="shared" si="0"/>
+        <v>-0.44900000000000007</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>37</v>
       </c>
@@ -4711,8 +6913,12 @@
       <c r="E44">
         <v>2.1110000000000002</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F44">
+        <f t="shared" si="0"/>
+        <v>-0.44600000000000017</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>38</v>
       </c>
@@ -4728,8 +6934,12 @@
       <c r="E45">
         <v>2.0819999999999999</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F45">
+        <f t="shared" si="0"/>
+        <v>-0.43199999999999994</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>39</v>
       </c>
@@ -4745,8 +6955,12 @@
       <c r="E46">
         <v>2.0539999999999998</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F46">
+        <f t="shared" si="0"/>
+        <v>-0.41899999999999982</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>40</v>
       </c>
@@ -4762,8 +6976,12 @@
       <c r="E47">
         <v>2.0329999999999999</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F47">
+        <f t="shared" si="0"/>
+        <v>-0.41099999999999981</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>41</v>
       </c>
@@ -4779,8 +6997,12 @@
       <c r="E48">
         <v>2.0259999999999998</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F48">
+        <f t="shared" si="0"/>
+        <v>-0.41299999999999981</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>42</v>
       </c>
@@ -4796,8 +7018,12 @@
       <c r="E49">
         <v>2.008</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F49">
+        <f t="shared" si="0"/>
+        <v>-0.39999999999999991</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>43</v>
       </c>
@@ -4813,8 +7039,12 @@
       <c r="E50">
         <v>1.976</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F50">
+        <f t="shared" si="0"/>
+        <v>-0.39100000000000001</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>44</v>
       </c>
@@ -4830,8 +7060,12 @@
       <c r="E51">
         <v>1.9630000000000001</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F51">
+        <f t="shared" si="0"/>
+        <v>-0.38500000000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>45</v>
       </c>
@@ -4847,8 +7081,12 @@
       <c r="E52">
         <v>1.9419999999999999</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F52">
+        <f t="shared" si="0"/>
+        <v>-0.375</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>46</v>
       </c>
@@ -4864,8 +7102,12 @@
       <c r="E53">
         <v>1.9319999999999999</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F53">
+        <f t="shared" si="0"/>
+        <v>-0.37199999999999989</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>47</v>
       </c>
@@ -4881,8 +7123,12 @@
       <c r="E54">
         <v>1.909</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F54">
+        <f t="shared" si="0"/>
+        <v>-0.3640000000000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>48</v>
       </c>
@@ -4898,8 +7144,12 @@
       <c r="E55">
         <v>1.891</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F55">
+        <f t="shared" si="0"/>
+        <v>-0.34800000000000009</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>49</v>
       </c>
@@ -4915,8 +7165,12 @@
       <c r="E56">
         <v>1.87</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F56">
+        <f t="shared" si="0"/>
+        <v>-0.34200000000000008</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>50</v>
       </c>
@@ -4932,8 +7186,12 @@
       <c r="E57">
         <v>1.86</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F57">
+        <f t="shared" si="0"/>
+        <v>-0.33100000000000018</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>51</v>
       </c>
@@ -4949,8 +7207,12 @@
       <c r="E58">
         <v>1.849</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F58">
+        <f t="shared" si="0"/>
+        <v>-0.33200000000000007</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>52</v>
       </c>
@@ -4966,8 +7228,12 @@
       <c r="E59">
         <v>1.825</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F59">
+        <f t="shared" si="0"/>
+        <v>-0.30400000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>53</v>
       </c>
@@ -4983,8 +7249,12 @@
       <c r="E60">
         <v>1.821</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F60">
+        <f t="shared" si="0"/>
+        <v>-0.31600000000000006</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>54</v>
       </c>
@@ -5000,8 +7270,12 @@
       <c r="E61">
         <v>1.8029999999999999</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F61">
+        <f t="shared" si="0"/>
+        <v>-0.30899999999999994</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>55</v>
       </c>
@@ -5017,8 +7291,12 @@
       <c r="E62">
         <v>1.79</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F62">
+        <f t="shared" si="0"/>
+        <v>-0.29499999999999993</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>56</v>
       </c>
@@ -5034,8 +7312,12 @@
       <c r="E63">
         <v>1.778</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F63">
+        <f t="shared" si="0"/>
+        <v>-0.29499999999999993</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>57</v>
       </c>
@@ -5051,8 +7333,12 @@
       <c r="E64">
         <v>1.7669999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F64">
+        <f t="shared" si="0"/>
+        <v>-0.28599999999999981</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>58</v>
       </c>
@@ -5068,8 +7354,12 @@
       <c r="E65">
         <v>1.7589999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F65">
+        <f t="shared" si="0"/>
+        <v>-0.28399999999999981</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>59</v>
       </c>
@@ -5085,8 +7375,12 @@
       <c r="E66">
         <v>1.738</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F66">
+        <f t="shared" si="0"/>
+        <v>-0.27600000000000002</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>60</v>
       </c>
@@ -5102,8 +7396,12 @@
       <c r="E67">
         <v>1.726</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F67">
+        <f t="shared" ref="F67:F121" si="1">B67-E67</f>
+        <v>-0.27</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>61</v>
       </c>
@@ -5119,8 +7417,12 @@
       <c r="E68">
         <v>1.7210000000000001</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F68">
+        <f t="shared" si="1"/>
+        <v>-0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>62</v>
       </c>
@@ -5136,8 +7438,12 @@
       <c r="E69">
         <v>1.7050000000000001</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F69">
+        <f t="shared" si="1"/>
+        <v>-0.26400000000000001</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>63</v>
       </c>
@@ -5153,8 +7459,12 @@
       <c r="E70">
         <v>1.698</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F70">
+        <f t="shared" si="1"/>
+        <v>-0.25099999999999989</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>64</v>
       </c>
@@ -5170,8 +7480,12 @@
       <c r="E71">
         <v>1.681</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F71">
+        <f t="shared" si="1"/>
+        <v>-0.2370000000000001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>65</v>
       </c>
@@ -5187,8 +7501,12 @@
       <c r="E72">
         <v>1.6819999999999999</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F72">
+        <f t="shared" si="1"/>
+        <v>-0.24299999999999988</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>66</v>
       </c>
@@ -5204,8 +7522,12 @@
       <c r="E73">
         <v>1.663</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F73">
+        <f t="shared" si="1"/>
+        <v>-0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>67</v>
       </c>
@@ -5221,8 +7543,12 @@
       <c r="E74">
         <v>1.6539999999999999</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F74">
+        <f t="shared" si="1"/>
+        <v>-0.23299999999999987</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>68</v>
       </c>
@@ -5238,8 +7564,12 @@
       <c r="E75">
         <v>1.653</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F75">
+        <f t="shared" si="1"/>
+        <v>-0.23799999999999999</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>69</v>
       </c>
@@ -5255,8 +7585,12 @@
       <c r="E76">
         <v>1.633</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F76">
+        <f t="shared" si="1"/>
+        <v>-0.21999999999999997</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>70</v>
       </c>
@@ -5272,8 +7606,12 @@
       <c r="E77">
         <v>1.6240000000000001</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F77">
+        <f t="shared" si="1"/>
+        <v>-0.22300000000000009</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>71</v>
       </c>
@@ -5289,8 +7627,12 @@
       <c r="E78">
         <v>1.621</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F78">
+        <f t="shared" si="1"/>
+        <v>-0.21100000000000008</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>72</v>
       </c>
@@ -5306,8 +7648,12 @@
       <c r="E79">
         <v>1.611</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F79">
+        <f t="shared" si="1"/>
+        <v>-0.20500000000000007</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>73</v>
       </c>
@@ -5323,229 +7669,1137 @@
       <c r="E80">
         <v>1.603</v>
       </c>
-    </row>
-    <row r="81" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F80">
+        <f t="shared" si="1"/>
+        <v>-0.20300000000000007</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81">
+        <v>74</v>
+      </c>
+      <c r="B81">
+        <v>1.391</v>
+      </c>
       <c r="D81">
         <v>71</v>
       </c>
       <c r="E81">
         <v>1.603</v>
       </c>
-    </row>
-    <row r="82" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F81">
+        <f t="shared" si="1"/>
+        <v>-0.21199999999999997</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82">
+        <v>75</v>
+      </c>
+      <c r="B82">
+        <v>1.389</v>
+      </c>
       <c r="D82">
         <v>72</v>
       </c>
       <c r="E82">
         <v>1.5880000000000001</v>
       </c>
-    </row>
-    <row r="83" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F82">
+        <f t="shared" si="1"/>
+        <v>-0.19900000000000007</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83">
+        <v>76</v>
+      </c>
+      <c r="B83">
+        <v>1.391</v>
+      </c>
       <c r="D83">
         <v>73</v>
       </c>
       <c r="E83">
         <v>1.577</v>
       </c>
-    </row>
-    <row r="84" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F83">
+        <f t="shared" si="1"/>
+        <v>-0.18599999999999994</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84">
+        <v>77</v>
+      </c>
+      <c r="B84">
+        <v>1.38</v>
+      </c>
       <c r="D84">
         <v>74</v>
       </c>
       <c r="E84">
         <v>1.57</v>
       </c>
-    </row>
-    <row r="85" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F84">
+        <f t="shared" si="1"/>
+        <v>-0.19000000000000017</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85">
+        <v>78</v>
+      </c>
+      <c r="B85">
+        <v>1.3720000000000001</v>
+      </c>
       <c r="D85">
         <v>75</v>
       </c>
       <c r="E85">
         <v>1.569</v>
       </c>
-    </row>
-    <row r="86" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F85">
+        <f t="shared" si="1"/>
+        <v>-0.19699999999999984</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86">
+        <v>79</v>
+      </c>
+      <c r="B86">
+        <v>1.3660000000000001</v>
+      </c>
       <c r="D86">
         <v>76</v>
       </c>
       <c r="E86">
         <v>1.556</v>
       </c>
-    </row>
-    <row r="87" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F86">
+        <f t="shared" si="1"/>
+        <v>-0.18999999999999995</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87">
+        <v>80</v>
+      </c>
+      <c r="B87">
+        <v>1.369</v>
+      </c>
       <c r="D87">
         <v>77</v>
       </c>
       <c r="E87">
         <v>1.5449999999999999</v>
       </c>
-    </row>
-    <row r="88" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F87">
+        <f t="shared" si="1"/>
+        <v>-0.17599999999999993</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88">
+        <v>81</v>
+      </c>
+      <c r="B88">
+        <v>1.367</v>
+      </c>
       <c r="D88">
         <v>78</v>
       </c>
       <c r="E88">
         <v>1.5389999999999999</v>
       </c>
-    </row>
-    <row r="89" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F88">
+        <f t="shared" si="1"/>
+        <v>-0.17199999999999993</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89">
+        <v>82</v>
+      </c>
+      <c r="B89">
+        <v>1.3540000000000001</v>
+      </c>
       <c r="D89">
         <v>79</v>
       </c>
       <c r="E89">
         <v>1.5349999999999999</v>
       </c>
-    </row>
-    <row r="90" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F89">
+        <f t="shared" si="1"/>
+        <v>-0.18099999999999983</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90">
+        <v>83</v>
+      </c>
+      <c r="B90">
+        <v>1.3560000000000001</v>
+      </c>
       <c r="D90">
         <v>80</v>
       </c>
       <c r="E90">
         <v>1.5249999999999999</v>
       </c>
-    </row>
-    <row r="91" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F90">
+        <f t="shared" si="1"/>
+        <v>-0.16899999999999982</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91">
+        <v>84</v>
+      </c>
+      <c r="B91">
+        <v>1.351</v>
+      </c>
       <c r="D91">
         <v>81</v>
       </c>
       <c r="E91">
         <v>1.5189999999999999</v>
       </c>
-    </row>
-    <row r="92" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F91">
+        <f t="shared" si="1"/>
+        <v>-0.16799999999999993</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92">
+        <v>85</v>
+      </c>
+      <c r="B92">
+        <v>1.3480000000000001</v>
+      </c>
       <c r="D92">
         <v>82</v>
       </c>
       <c r="E92">
         <v>1.514</v>
       </c>
-    </row>
-    <row r="93" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F92">
+        <f t="shared" si="1"/>
+        <v>-0.16599999999999993</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93">
+        <v>86</v>
+      </c>
+      <c r="B93">
+        <v>1.347</v>
+      </c>
       <c r="D93">
         <v>83</v>
       </c>
       <c r="E93">
         <v>1.512</v>
       </c>
-    </row>
-    <row r="94" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F93">
+        <f t="shared" si="1"/>
+        <v>-0.16500000000000004</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94">
+        <v>87</v>
+      </c>
+      <c r="B94">
+        <v>1.347</v>
+      </c>
       <c r="D94">
         <v>84</v>
       </c>
       <c r="E94">
         <v>1.502</v>
       </c>
-    </row>
-    <row r="95" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F94">
+        <f t="shared" si="1"/>
+        <v>-0.15500000000000003</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95">
+        <v>88</v>
+      </c>
+      <c r="B95">
+        <v>1.3380000000000001</v>
+      </c>
       <c r="D95">
         <v>85</v>
       </c>
       <c r="E95">
         <v>1.5049999999999999</v>
       </c>
-    </row>
-    <row r="96" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F95">
+        <f t="shared" si="1"/>
+        <v>-0.16699999999999982</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96">
+        <v>89</v>
+      </c>
+      <c r="B96">
+        <v>1.333</v>
+      </c>
       <c r="D96">
         <v>86</v>
       </c>
       <c r="E96">
         <v>1.4930000000000001</v>
       </c>
-    </row>
-    <row r="97" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F96">
+        <f t="shared" si="1"/>
+        <v>-0.16000000000000014</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97">
+        <v>90</v>
+      </c>
+      <c r="B97">
+        <v>1.3360000000000001</v>
+      </c>
       <c r="D97">
         <v>87</v>
       </c>
       <c r="E97">
         <v>1.478</v>
       </c>
-    </row>
-    <row r="98" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F97">
+        <f t="shared" si="1"/>
+        <v>-0.1419999999999999</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98">
+        <v>91</v>
+      </c>
+      <c r="B98">
+        <v>1.335</v>
+      </c>
       <c r="D98">
         <v>88</v>
       </c>
       <c r="E98">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="99" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F98">
+        <f t="shared" si="1"/>
+        <v>-0.14500000000000002</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99">
+        <v>92</v>
+      </c>
+      <c r="B99">
+        <v>1.331</v>
+      </c>
       <c r="D99">
         <v>89</v>
       </c>
       <c r="E99">
         <v>1.478</v>
       </c>
-    </row>
-    <row r="100" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F99">
+        <f t="shared" si="1"/>
+        <v>-0.14700000000000002</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100">
+        <v>93</v>
+      </c>
+      <c r="B100">
+        <v>1.3260000000000001</v>
+      </c>
       <c r="D100">
         <v>90</v>
       </c>
       <c r="E100">
         <v>1.4690000000000001</v>
       </c>
-    </row>
-    <row r="101" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F100">
+        <f t="shared" si="1"/>
+        <v>-0.14300000000000002</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101">
+        <v>94</v>
+      </c>
+      <c r="B101">
+        <v>1.3220000000000001</v>
+      </c>
       <c r="D101">
         <v>91</v>
       </c>
       <c r="E101">
         <v>1.4650000000000001</v>
       </c>
-    </row>
-    <row r="102" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F101">
+        <f t="shared" si="1"/>
+        <v>-0.14300000000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102">
+        <v>95</v>
+      </c>
+      <c r="B102">
+        <v>1.323</v>
+      </c>
       <c r="D102">
         <v>92</v>
       </c>
       <c r="E102">
         <v>1.4610000000000001</v>
       </c>
-    </row>
-    <row r="103" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F102">
+        <f t="shared" si="1"/>
+        <v>-0.13800000000000012</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103">
+        <f>A102+1</f>
+        <v>96</v>
+      </c>
+      <c r="B103">
+        <v>1.3169999999999999</v>
+      </c>
       <c r="D103">
         <v>93</v>
       </c>
       <c r="E103">
         <v>1.454</v>
       </c>
-    </row>
-    <row r="104" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F103">
+        <f t="shared" si="1"/>
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104">
+        <f t="shared" ref="A104:A130" si="2">A103+1</f>
+        <v>97</v>
+      </c>
+      <c r="B104">
+        <v>1.3140000000000001</v>
+      </c>
       <c r="D104">
         <v>94</v>
       </c>
       <c r="E104">
         <v>1.4510000000000001</v>
       </c>
-    </row>
-    <row r="105" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F104">
+        <f t="shared" si="1"/>
+        <v>-0.13700000000000001</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105">
+        <f t="shared" si="2"/>
+        <v>98</v>
+      </c>
+      <c r="B105">
+        <v>1.3129999999999999</v>
+      </c>
       <c r="D105">
         <v>95</v>
       </c>
       <c r="E105">
         <v>1.4419999999999999</v>
       </c>
-    </row>
-    <row r="106" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F105">
+        <f t="shared" si="1"/>
+        <v>-0.129</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="B106">
+        <v>1.3140000000000001</v>
+      </c>
       <c r="D106">
         <v>96</v>
       </c>
       <c r="E106">
         <v>1.4359999999999999</v>
       </c>
-    </row>
-    <row r="107" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F106">
+        <f t="shared" si="1"/>
+        <v>-0.12199999999999989</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107">
+        <f t="shared" si="2"/>
+        <v>100</v>
+      </c>
+      <c r="B107">
+        <v>1.3049999999999999</v>
+      </c>
       <c r="D107">
         <v>97</v>
       </c>
       <c r="E107">
         <v>1.4359999999999999</v>
       </c>
-    </row>
-    <row r="108" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="F107">
+        <f t="shared" si="1"/>
+        <v>-0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108">
+        <f t="shared" si="2"/>
+        <v>101</v>
+      </c>
+      <c r="B108">
+        <v>1.3</v>
+      </c>
       <c r="D108">
         <v>98</v>
       </c>
       <c r="E108">
         <v>1.431</v>
+      </c>
+      <c r="F108">
+        <f t="shared" si="1"/>
+        <v>-0.13100000000000001</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109">
+        <f t="shared" si="2"/>
+        <v>102</v>
+      </c>
+      <c r="B109">
+        <v>1.296</v>
+      </c>
+      <c r="D109">
+        <v>111</v>
+      </c>
+      <c r="E109">
+        <v>1.3740000000000001</v>
+      </c>
+      <c r="F109">
+        <f t="shared" si="1"/>
+        <v>-7.8000000000000069E-2</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110">
+        <f t="shared" si="2"/>
+        <v>103</v>
+      </c>
+      <c r="B110">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D110">
+        <v>112</v>
+      </c>
+      <c r="E110">
+        <v>1.3640000000000001</v>
+      </c>
+      <c r="F110">
+        <f t="shared" si="1"/>
+        <v>-7.3000000000000176E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111">
+        <f t="shared" si="2"/>
+        <v>104</v>
+      </c>
+      <c r="B111">
+        <v>1.298</v>
+      </c>
+      <c r="D111">
+        <v>113</v>
+      </c>
+      <c r="E111">
+        <v>1.369</v>
+      </c>
+      <c r="F111">
+        <f t="shared" si="1"/>
+        <v>-7.0999999999999952E-2</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112">
+        <f t="shared" si="2"/>
+        <v>105</v>
+      </c>
+      <c r="B112">
+        <v>1.2949999999999999</v>
+      </c>
+      <c r="D112">
+        <v>114</v>
+      </c>
+      <c r="E112">
+        <v>1.357</v>
+      </c>
+      <c r="F112">
+        <f t="shared" si="1"/>
+        <v>-6.2000000000000055E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113">
+        <f t="shared" si="2"/>
+        <v>106</v>
+      </c>
+      <c r="B113">
+        <v>1.2909999999999999</v>
+      </c>
+      <c r="D113">
+        <v>115</v>
+      </c>
+      <c r="E113">
+        <v>1.355</v>
+      </c>
+      <c r="F113">
+        <f t="shared" si="1"/>
+        <v>-6.4000000000000057E-2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114">
+        <f t="shared" si="2"/>
+        <v>107</v>
+      </c>
+      <c r="B114">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="D114">
+        <v>116</v>
+      </c>
+      <c r="E114">
+        <v>1.355</v>
+      </c>
+      <c r="F114">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115">
+        <f t="shared" si="2"/>
+        <v>108</v>
+      </c>
+      <c r="B115">
+        <v>1.284</v>
+      </c>
+      <c r="D115">
+        <v>117</v>
+      </c>
+      <c r="E115">
+        <v>1.3540000000000001</v>
+      </c>
+      <c r="F115">
+        <f t="shared" si="1"/>
+        <v>-7.0000000000000062E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116">
+        <f t="shared" si="2"/>
+        <v>109</v>
+      </c>
+      <c r="B116">
+        <v>1.2849999999999999</v>
+      </c>
+      <c r="D116">
+        <v>118</v>
+      </c>
+      <c r="E116">
+        <v>1.3480000000000001</v>
+      </c>
+      <c r="F116">
+        <f t="shared" si="1"/>
+        <v>-6.3000000000000167E-2</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117">
+        <f t="shared" si="2"/>
+        <v>110</v>
+      </c>
+      <c r="B117">
+        <v>1.274</v>
+      </c>
+      <c r="D117">
+        <v>119</v>
+      </c>
+      <c r="E117">
+        <v>1.343</v>
+      </c>
+      <c r="F117">
+        <f t="shared" si="1"/>
+        <v>-6.899999999999995E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118">
+        <f t="shared" si="2"/>
+        <v>111</v>
+      </c>
+      <c r="B118">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="D118">
+        <v>120</v>
+      </c>
+      <c r="E118">
+        <v>1.347</v>
+      </c>
+      <c r="F118">
+        <f t="shared" si="1"/>
+        <v>-6.800000000000006E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119">
+        <f t="shared" si="2"/>
+        <v>112</v>
+      </c>
+      <c r="B119">
+        <v>1.2789999999999999</v>
+      </c>
+      <c r="D119">
+        <v>121</v>
+      </c>
+      <c r="E119">
+        <v>1.335</v>
+      </c>
+      <c r="F119">
+        <f t="shared" si="1"/>
+        <v>-5.600000000000005E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120">
+        <f t="shared" si="2"/>
+        <v>113</v>
+      </c>
+      <c r="B120">
+        <v>1.2769999999999999</v>
+      </c>
+      <c r="D120">
+        <v>122</v>
+      </c>
+      <c r="E120">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="F120">
+        <f t="shared" si="1"/>
+        <v>-6.5000000000000169E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121">
+        <f t="shared" si="2"/>
+        <v>114</v>
+      </c>
+      <c r="B121">
+        <v>1.27</v>
+      </c>
+      <c r="D121">
+        <v>123</v>
+      </c>
+      <c r="E121">
+        <v>1.3340000000000001</v>
+      </c>
+      <c r="F121">
+        <f t="shared" si="1"/>
+        <v>-6.4000000000000057E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122">
+        <f t="shared" si="2"/>
+        <v>115</v>
+      </c>
+      <c r="B122">
+        <v>1.272</v>
+      </c>
+      <c r="D122">
+        <v>124</v>
+      </c>
+      <c r="E122">
+        <v>1.3280000000000001</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123">
+        <f t="shared" si="2"/>
+        <v>116</v>
+      </c>
+      <c r="D123">
+        <v>125</v>
+      </c>
+      <c r="E123">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124">
+        <f t="shared" si="2"/>
+        <v>117</v>
+      </c>
+      <c r="D124">
+        <v>126</v>
+      </c>
+      <c r="E124">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125">
+        <f t="shared" si="2"/>
+        <v>118</v>
+      </c>
+      <c r="D125">
+        <v>127</v>
+      </c>
+      <c r="E125">
+        <v>1.32</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126">
+        <f t="shared" si="2"/>
+        <v>119</v>
+      </c>
+      <c r="D126">
+        <v>128</v>
+      </c>
+      <c r="E126">
+        <v>1.323</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127">
+        <f t="shared" si="2"/>
+        <v>120</v>
+      </c>
+      <c r="D127">
+        <v>129</v>
+      </c>
+      <c r="E127">
+        <v>1.3169999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128">
+        <f t="shared" si="2"/>
+        <v>121</v>
+      </c>
+      <c r="D128">
+        <v>130</v>
+      </c>
+      <c r="E128">
+        <v>1.3120000000000001</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129">
+        <f t="shared" si="2"/>
+        <v>122</v>
+      </c>
+      <c r="D129">
+        <v>131</v>
+      </c>
+      <c r="E129">
+        <v>1.3089999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130">
+        <f t="shared" si="2"/>
+        <v>123</v>
+      </c>
+      <c r="D130">
+        <v>132</v>
+      </c>
+      <c r="E130">
+        <v>1.306</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D131">
+        <v>133</v>
+      </c>
+      <c r="E131">
+        <v>1.298</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D132">
+        <f>D131+1</f>
+        <v>134</v>
+      </c>
+      <c r="E132">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D133">
+        <f t="shared" ref="D133:D160" si="3">D132+1</f>
+        <v>135</v>
+      </c>
+      <c r="E133">
+        <v>1.2949999999999999</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D134">
+        <f t="shared" si="3"/>
+        <v>136</v>
+      </c>
+      <c r="E134">
+        <v>1.302</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D135">
+        <f t="shared" si="3"/>
+        <v>137</v>
+      </c>
+      <c r="E135">
+        <v>1.298</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D136">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="E136">
+        <v>1.2969999999999999</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D137">
+        <f t="shared" si="3"/>
+        <v>139</v>
+      </c>
+      <c r="E137">
+        <v>1.2929999999999999</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D138">
+        <f t="shared" si="3"/>
+        <v>140</v>
+      </c>
+      <c r="E138">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D139">
+        <f t="shared" si="3"/>
+        <v>141</v>
+      </c>
+      <c r="E139">
+        <v>1.2809999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D140">
+        <f t="shared" si="3"/>
+        <v>142</v>
+      </c>
+      <c r="E140">
+        <v>1.2849999999999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D141">
+        <f t="shared" si="3"/>
+        <v>143</v>
+      </c>
+      <c r="E141">
+        <v>1.282</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D142">
+        <f t="shared" si="3"/>
+        <v>144</v>
+      </c>
+      <c r="E142">
+        <v>1.2789999999999999</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D143">
+        <f t="shared" si="3"/>
+        <v>145</v>
+      </c>
+      <c r="E143">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D144">
+        <f t="shared" si="3"/>
+        <v>146</v>
+      </c>
+      <c r="E144">
+        <v>1.268</v>
+      </c>
+    </row>
+    <row r="145" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D145">
+        <f t="shared" si="3"/>
+        <v>147</v>
+      </c>
+      <c r="E145">
+        <v>1.2709999999999999</v>
+      </c>
+    </row>
+    <row r="146" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D146">
+        <f t="shared" si="3"/>
+        <v>148</v>
+      </c>
+      <c r="E146">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="147" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D147">
+        <f t="shared" si="3"/>
+        <v>149</v>
+      </c>
+      <c r="E147">
+        <v>1.2649999999999999</v>
+      </c>
+    </row>
+    <row r="148" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D148">
+        <f t="shared" si="3"/>
+        <v>150</v>
+      </c>
+      <c r="E148">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="149" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D149">
+        <f t="shared" si="3"/>
+        <v>151</v>
+      </c>
+      <c r="E149">
+        <v>1.2629999999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D150">
+        <f t="shared" si="3"/>
+        <v>152</v>
+      </c>
+      <c r="E150">
+        <v>1.262</v>
+      </c>
+    </row>
+    <row r="151" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D151">
+        <f t="shared" si="3"/>
+        <v>153</v>
+      </c>
+      <c r="E151">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="152" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D152">
+        <f t="shared" si="3"/>
+        <v>154</v>
+      </c>
+      <c r="E152">
+        <v>1.2509999999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D153">
+        <f t="shared" si="3"/>
+        <v>155</v>
+      </c>
+      <c r="E153">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="154" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D154">
+        <f t="shared" si="3"/>
+        <v>156</v>
+      </c>
+      <c r="E154">
+        <v>1.254</v>
+      </c>
+    </row>
+    <row r="155" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D155">
+        <f t="shared" si="3"/>
+        <v>157</v>
+      </c>
+      <c r="E155">
+        <v>1.2490000000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D156">
+        <f>D155+1</f>
+        <v>158</v>
+      </c>
+      <c r="E156">
+        <v>1.246</v>
+      </c>
+    </row>
+    <row r="157" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D157">
+        <f t="shared" si="3"/>
+        <v>159</v>
+      </c>
+      <c r="E157">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="158" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D158">
+        <f t="shared" si="3"/>
+        <v>160</v>
+      </c>
+    </row>
+    <row r="159" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D159">
+        <f t="shared" si="3"/>
+        <v>161</v>
+      </c>
+    </row>
+    <row r="160" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="D160">
+        <f t="shared" si="3"/>
+        <v>162</v>
       </c>
     </row>
   </sheetData>

--- a/chatbotp3r3/eloss3and4levelNet.xlsx
+++ b/chatbotp3r3/eloss3and4levelNet.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -24,18 +25,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
   <si>
     <t>Epoch</t>
   </si>
   <si>
-    <t>Loss 3L</t>
+    <t>Loss 3L256H64B</t>
   </si>
   <si>
-    <t>Loss 4L</t>
+    <t>Loss 4L256H64B</t>
   </si>
   <si>
-    <t>Diff</t>
+    <t>Loss2L512H128B</t>
+  </si>
+  <si>
+    <t>Loss1L512HB128</t>
+  </si>
+  <si>
+    <t>L1L256H128B</t>
+  </si>
+  <si>
+    <t>L1L512H256B</t>
   </si>
 </sst>
 </file>
@@ -125,654 +135,6 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-CA"/>
-              <a:t>Loss</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-CA" baseline="0"/>
-              <a:t> vs Epoch 3 Layer Network Adam Optimizer</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-CA"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:xVal>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>0.4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.5</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.7</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.8</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.9</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>50</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$57</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="56"/>
-                <c:pt idx="0">
-                  <c:v>4.1950000000000003</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4.0970000000000004</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.9929999999999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3.9340000000000002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>3.883</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>3.8079999999999998</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>3.758</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3.577</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>3.371</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>3.2189999999999999</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>3.0739999999999998</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>2.9449999999999998</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>2.8370000000000002</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>2.7309999999999999</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>2.6469999999999998</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>2.5550000000000002</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>2.4860000000000002</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>2.41</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>2.35</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>2.2890000000000001</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>2.2360000000000002</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>2.1869999999999998</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>2.141</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>2.1030000000000002</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>2.0640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>2.028</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.9970000000000001</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.9590000000000001</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.9339999999999999</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.9019999999999999</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.8740000000000001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.857</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.835</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.806</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.79</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.7749999999999999</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.756</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.7350000000000001</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.7190000000000001</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.704</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.6830000000000001</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.6759999999999999</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.665</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.65</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.635</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.6220000000000001</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.613</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.6080000000000001</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.585</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.5780000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.5669999999999999</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.56</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.5449999999999999</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.5429999999999999</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.528</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.5289999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-D783-4944-8D4D-7BD929757772}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="368093792"/>
-        <c:axId val="270553520"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="368093792"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="270553520"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="270553520"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="368093792"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-CA"/>
               <a:t>Loss vs Epoch</a:t>
             </a:r>
           </a:p>
@@ -822,7 +184,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Loss 3L</c:v>
+                  <c:v>Loss 3L256H64B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1629,11 +991,11 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
+              <c:f>Sheet1!$D$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Loss 4L</c:v>
+                  <c:v>Loss 4L256H64B</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1660,9 +1022,68 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:dPt>
+            <c:idx val="152"/>
+            <c:marker>
+              <c:symbol val="circle"/>
+              <c:size val="5"/>
+              <c:spPr>
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:ln w="9525">
+                  <a:solidFill>
+                    <a:schemeClr val="accent2"/>
+                  </a:solidFill>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:marker>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:gradFill>
+                  <a:gsLst>
+                    <a:gs pos="0">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="5000"/>
+                        <a:lumOff val="95000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="74000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="83000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="45000"/>
+                        <a:lumOff val="55000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                    <a:gs pos="100000">
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="30000"/>
+                        <a:lumOff val="70000"/>
+                      </a:schemeClr>
+                    </a:gs>
+                  </a:gsLst>
+                  <a:lin ang="5400000" scaled="1"/>
+                </a:gradFill>
+                <a:round/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-201F-42F6-8A43-941CE842C49B}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$157</c:f>
+              <c:f>Sheet1!$C$2:$C$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="156"/>
@@ -2139,7 +1560,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$E$2:$E$157</c:f>
+              <c:f>Sheet1!$D$2:$D$157</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="156"/>
@@ -2618,6 +2039,2083 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-201F-42F6-8A43-941CE842C49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss2L512H128B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$122</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="121"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>124</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$E$2:$E$138</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="137"/>
+                <c:pt idx="0">
+                  <c:v>5.0069999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1970000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.9849999999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.6859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.6160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.5449999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4870000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.427</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.379</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2158000000000002</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.831</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.548</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.966</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.84</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.734</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6419999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.5680000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.508</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4530000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4019999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000E-201F-42F6-8A43-941CE842C49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Loss1L512HB128</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent4"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>112</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>115</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>117</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>119</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>120</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>121</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>123</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>127</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>135</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>138</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>139</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>141</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>144</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>145</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>146</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>150</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>151</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>152</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>153</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>154</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>155</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>156</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>157</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>158</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>159</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>161</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>162</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$F$2:$F$160</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="159"/>
+                <c:pt idx="0">
+                  <c:v>4.8140000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.1139999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.92</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.7639999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.653</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.573</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.4860000000000002</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.4180000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.3580000000000001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.3050000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.665</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.363</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.1349999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.94</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.772</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.637</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.198</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.137</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.095</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.048</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.0149999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.97399999999999998</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.94399999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.91400000000000003</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.90100000000000002</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.872</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.85799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.84</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{0000000F-201F-42F6-8A43-941CE842C49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1L256H128B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$109</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="108"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>111</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$G$2:$G$141</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="140"/>
+                <c:pt idx="0">
+                  <c:v>5.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.2069999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0339999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.9340000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.831</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.718</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.5939999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.5419999999999998</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.4980000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3.2879999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.99</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.7440000000000002</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.5499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>2.3860000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.2450000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>2.1240000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>2.02</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.9219999999999999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.8420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.7729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.698</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.637</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.5880000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5349999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.484</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.444</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.407</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3720000000000001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3420000000000001</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.3049999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.284</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2370000000000001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.212</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.1879999999999999</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.17</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.155</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.135</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1040000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0840000000000001</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.079</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.0620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.0489999999999999</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.04</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.0309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.02</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.0009999999999999</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.995</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.98799999999999999</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.97699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.96799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.96099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.95399999999999996</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.94699999999999995</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.93899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.93300000000000005</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000010-201F-42F6-8A43-941CE842C49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1L512H256B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent6"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$68</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="67"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>58</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$89</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="88"/>
+                <c:pt idx="0">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000011-201F-42F6-8A43-941CE842C49B}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2635,6 +4133,7 @@
       <c:valAx>
         <c:axId val="309443888"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -2753,7 +4252,7 @@
         <c:axId val="474994784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:min val="1"/>
+          <c:min val="5.000000000000001E-2"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -2943,7 +4442,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3002,7 +4501,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Diff</c:v>
+                  <c:v>Loss1L512HB128</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -3031,12 +4530,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="log"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$113</c:f>
+              <c:f>Sheet1!$C$2:$C$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
                   <c:v>0.1</c:v>
                 </c:pt>
@@ -3258,465 +4801,114 @@
                 </c:pt>
                 <c:pt idx="73">
                   <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>115</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$2:$F$113</c:f>
+              <c:f>Sheet1!$F$2:$F$75</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="112"/>
+                <c:ptCount val="74"/>
                 <c:pt idx="0">
-                  <c:v>-1.306</c:v>
+                  <c:v>4.8140000000000001</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-0.74299999999999944</c:v>
+                  <c:v>4.1139999999999999</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-0.47399999999999975</c:v>
+                  <c:v>3.92</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-0.34699999999999953</c:v>
+                  <c:v>3.7639999999999998</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-0.2629999999999999</c:v>
+                  <c:v>3.653</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-0.28000000000000025</c:v>
+                  <c:v>3.573</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-0.27400000000000002</c:v>
+                  <c:v>3.4860000000000002</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-0.41199999999999992</c:v>
+                  <c:v>3.4180000000000001</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-0.58400000000000007</c:v>
+                  <c:v>3.3580000000000001</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-0.7200000000000002</c:v>
+                  <c:v>3.3050000000000002</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-0.68800000000000017</c:v>
+                  <c:v>3.0489999999999999</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-0.62200000000000033</c:v>
+                  <c:v>2.665</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-0.59299999999999997</c:v>
+                  <c:v>2.363</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-0.58899999999999997</c:v>
+                  <c:v>2.1349999999999998</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-0.5860000000000003</c:v>
+                  <c:v>1.94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-0.59199999999999964</c:v>
+                  <c:v>1.772</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-0.59399999999999986</c:v>
+                  <c:v>1.637</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-0.59799999999999986</c:v>
+                  <c:v>1.5169999999999999</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-0.61499999999999977</c:v>
+                  <c:v>1.4179999999999999</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-0.62199999999999989</c:v>
+                  <c:v>1.3320000000000001</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-0.621</c:v>
+                  <c:v>1.2589999999999999</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>-0.60499999999999998</c:v>
+                  <c:v>1.198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>-0.6080000000000001</c:v>
+                  <c:v>1.137</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>-0.59999999999999964</c:v>
+                  <c:v>1.095</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>-0.59799999999999986</c:v>
+                  <c:v>1.048</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>-0.59600000000000009</c:v>
+                  <c:v>1.0149999999999999</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>-0.58399999999999985</c:v>
+                  <c:v>0.97399999999999998</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>-0.58599999999999985</c:v>
+                  <c:v>0.94399999999999995</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>-0.57099999999999995</c:v>
+                  <c:v>0.91400000000000003</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>-0.56299999999999994</c:v>
+                  <c:v>0.90100000000000002</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>-0.55699999999999994</c:v>
+                  <c:v>0.872</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>-0.54399999999999982</c:v>
+                  <c:v>0.85799999999999998</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>-0.53000000000000025</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>-0.53399999999999981</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>-0.51200000000000001</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>-0.5</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>-0.50299999999999989</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>-0.49</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>-0.47899999999999987</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>-0.47499999999999987</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>-0.46299999999999986</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>-0.44900000000000007</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>-0.44600000000000017</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>-0.43199999999999994</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>-0.41899999999999982</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>-0.41099999999999981</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>-0.41299999999999981</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>-0.39999999999999991</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>-0.39100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>-0.38500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>-0.375</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>-0.37199999999999989</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>-0.3640000000000001</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>-0.34800000000000009</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>-0.34200000000000008</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>-0.33100000000000018</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>-0.33200000000000007</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>-0.30400000000000005</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>-0.31600000000000006</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>-0.30899999999999994</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>-0.29499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>-0.29499999999999993</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>-0.28599999999999981</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>-0.28399999999999981</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>-0.27600000000000002</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>-0.27</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>-0.26400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>-0.26400000000000001</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>-0.25099999999999989</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>-0.2370000000000001</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>-0.24299999999999988</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>-0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>-0.23299999999999987</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>-0.23799999999999999</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>-0.21999999999999997</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>-0.22300000000000009</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>-0.21100000000000008</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>-0.20500000000000007</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>-0.20300000000000007</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>-0.21199999999999997</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>-0.19900000000000007</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>-0.18599999999999994</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>-0.19000000000000017</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>-0.19699999999999984</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>-0.18999999999999995</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>-0.17599999999999993</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>-0.17199999999999993</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>-0.18099999999999983</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>-0.16899999999999982</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>-0.16799999999999993</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>-0.16599999999999993</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>-0.16500000000000004</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>-0.15500000000000003</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>-0.16699999999999982</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>-0.16000000000000014</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>-0.1419999999999999</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>-0.14500000000000002</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>-0.14700000000000002</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>-0.14300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>-0.14300000000000002</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>-0.13800000000000012</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>-0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>-0.13700000000000001</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>-0.129</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>-0.12199999999999989</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>-0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>-0.13100000000000001</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>-7.8000000000000069E-2</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>-7.3000000000000176E-2</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>-7.0999999999999952E-2</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>-6.2000000000000055E-2</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>-6.4000000000000057E-2</c:v>
+                  <c:v>0.84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3724,7 +4916,331 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-A7E7-457E-9F48-09B96029BE0A}"/>
+              <c16:uniqueId val="{00000000-3A55-4C24-AE3D-C6A965539123}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1L512H256B</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="45"/>
+                <c:pt idx="0">
+                  <c:v>4.72</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0369999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.8239999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.649</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5169999999999999</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.423</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.2360000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.1539999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.7170000000000001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.2010000000000001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.829</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.552</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.347</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.0620000000000001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.82099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.76900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.72799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.68899999999999995</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.66200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.61099999999999999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.59</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.57599999999999996</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.55700000000000005</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.53200000000000003</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.52</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.51100000000000001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.50700000000000001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.49399999999999999</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.48699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.47799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.47099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.46899999999999997</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.45800000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.45</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.44900000000000001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.44600000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-3A55-4C24-AE3D-C6A965539123}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -3736,11 +5252,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="474593584"/>
-        <c:axId val="449905792"/>
+        <c:axId val="472216128"/>
+        <c:axId val="461771952"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="474593584"/>
+        <c:axId val="472216128"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3797,12 +5313,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="449905792"/>
+        <c:crossAx val="461771952"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="449905792"/>
+        <c:axId val="461771952"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3859,7 +5375,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="474593584"/>
+        <c:crossAx val="472216128"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3949,46 +5465,6 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -5060,572 +6536,20 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80010</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>342900</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>144780</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>259080</xdr:colOff>
-      <xdr:row>59</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACE804D5-81A4-445D-9D95-E7898717850B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>95250</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>41910</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>243840</xdr:colOff>
+      <xdr:colOff>491490</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>99060</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -5646,7 +6570,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5654,29 +6578,27 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>83820</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>80010</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>41</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>624840</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5">
+        <xdr:cNvPr id="8" name="Chart 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AEB2D331-E5D5-456B-8F30-A5978F6F9639}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DA06DFB8-1ACC-452E-8E14-48D728F2D5AA}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
+        <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -5684,7 +6606,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -5990,32 +6912,41 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F160"/>
+  <dimension ref="A1:H160"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="G60" sqref="G60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
       <c r="D1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.4</v>
       </c>
@@ -6023,20 +6954,25 @@
         <v>4.1950000000000003</v>
       </c>
       <c r="C2">
-        <v>0.53400000000000003</v>
+        <v>0.1</v>
       </c>
       <c r="D2">
-        <v>0.1</v>
+        <v>5.5010000000000003</v>
       </c>
       <c r="E2">
-        <v>5.5010000000000003</v>
+        <v>5.0069999999999997</v>
       </c>
       <c r="F2">
-        <f>B2-E2</f>
-        <v>-1.306</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>4.8140000000000001</v>
+      </c>
+      <c r="G2">
+        <v>5.0350000000000001</v>
+      </c>
+      <c r="H2">
+        <v>4.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -6044,20 +6980,25 @@
         <v>4.0970000000000004</v>
       </c>
       <c r="C3">
-        <v>0.59699999999999998</v>
+        <v>0.2</v>
       </c>
       <c r="D3">
-        <v>0.2</v>
+        <v>4.84</v>
       </c>
       <c r="E3">
-        <v>4.84</v>
+        <v>4.1970000000000001</v>
       </c>
       <c r="F3">
-        <f t="shared" ref="F3:F66" si="0">B3-E3</f>
-        <v>-0.74299999999999944</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>4.1139999999999999</v>
+      </c>
+      <c r="G3">
+        <v>4.2069999999999999</v>
+      </c>
+      <c r="H3">
+        <v>4.0369999999999999</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -6065,20 +7006,25 @@
         <v>3.9929999999999999</v>
       </c>
       <c r="C4">
-        <v>0.5</v>
+        <v>0.3</v>
       </c>
       <c r="D4">
-        <v>0.3</v>
+        <v>4.4669999999999996</v>
       </c>
       <c r="E4">
-        <v>4.4669999999999996</v>
+        <v>3.9849999999999999</v>
       </c>
       <c r="F4">
-        <f t="shared" si="0"/>
-        <v>-0.47399999999999975</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.92</v>
+      </c>
+      <c r="G4">
+        <v>4.0339999999999998</v>
+      </c>
+      <c r="H4">
+        <v>3.8239999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -6086,20 +7032,25 @@
         <v>3.9340000000000002</v>
       </c>
       <c r="C5">
-        <v>0.60399999999999998</v>
+        <v>0.4</v>
       </c>
       <c r="D5">
-        <v>0.4</v>
+        <v>4.2809999999999997</v>
       </c>
       <c r="E5">
-        <v>4.2809999999999997</v>
+        <v>3.8</v>
       </c>
       <c r="F5">
-        <f t="shared" si="0"/>
-        <v>-0.34699999999999953</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.7639999999999998</v>
+      </c>
+      <c r="G5">
+        <v>3.9340000000000002</v>
+      </c>
+      <c r="H5">
+        <v>3.649</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -6107,20 +7058,25 @@
         <v>3.883</v>
       </c>
       <c r="C6">
-        <v>0.58899999999999997</v>
+        <v>0.5</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>4.1459999999999999</v>
       </c>
       <c r="E6">
-        <v>4.1459999999999999</v>
+        <v>3.6859999999999999</v>
       </c>
       <c r="F6">
-        <f t="shared" si="0"/>
-        <v>-0.2629999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.653</v>
+      </c>
+      <c r="G6">
+        <v>3.831</v>
+      </c>
+      <c r="H6">
+        <v>3.5169999999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -6128,20 +7084,25 @@
         <v>3.8079999999999998</v>
       </c>
       <c r="C7">
-        <v>0.59</v>
+        <v>0.6</v>
       </c>
       <c r="D7">
-        <v>0.6</v>
+        <v>4.0880000000000001</v>
       </c>
       <c r="E7">
-        <v>4.0880000000000001</v>
+        <v>3.6160000000000001</v>
       </c>
       <c r="F7">
-        <f t="shared" si="0"/>
-        <v>-0.28000000000000025</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.573</v>
+      </c>
+      <c r="G7">
+        <v>3.718</v>
+      </c>
+      <c r="H7">
+        <v>3.423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1</v>
       </c>
@@ -6149,20 +7110,25 @@
         <v>3.758</v>
       </c>
       <c r="C8">
-        <v>0.6</v>
+        <v>0.7</v>
       </c>
       <c r="D8">
-        <v>0.7</v>
+        <v>4.032</v>
       </c>
       <c r="E8">
-        <v>4.032</v>
+        <v>3.5449999999999999</v>
       </c>
       <c r="F8">
-        <f t="shared" si="0"/>
-        <v>-0.27400000000000002</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.4860000000000002</v>
+      </c>
+      <c r="G8">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="H8">
+        <v>3.3260000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2</v>
       </c>
@@ -6170,20 +7136,25 @@
         <v>3.577</v>
       </c>
       <c r="C9">
-        <v>0.499</v>
+        <v>0.8</v>
       </c>
       <c r="D9">
-        <v>0.8</v>
+        <v>3.9889999999999999</v>
       </c>
       <c r="E9">
-        <v>3.9889999999999999</v>
+        <v>3.4870000000000001</v>
       </c>
       <c r="F9">
-        <f t="shared" si="0"/>
-        <v>-0.41199999999999992</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.4180000000000001</v>
+      </c>
+      <c r="G9">
+        <v>3.5939999999999999</v>
+      </c>
+      <c r="H9">
+        <v>3.2360000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>3</v>
       </c>
@@ -6191,20 +7162,25 @@
         <v>3.371</v>
       </c>
       <c r="C10">
-        <v>0.51</v>
+        <v>0.9</v>
       </c>
       <c r="D10">
-        <v>0.9</v>
+        <v>3.9550000000000001</v>
       </c>
       <c r="E10">
-        <v>3.9550000000000001</v>
+        <v>3.427</v>
       </c>
       <c r="F10">
-        <f t="shared" si="0"/>
-        <v>-0.58400000000000007</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.3580000000000001</v>
+      </c>
+      <c r="G10">
+        <v>3.5419999999999998</v>
+      </c>
+      <c r="H10">
+        <v>3.1539999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4</v>
       </c>
@@ -6212,20 +7188,25 @@
         <v>3.2189999999999999</v>
       </c>
       <c r="C11">
-        <v>0.502</v>
+        <v>1</v>
       </c>
       <c r="D11">
-        <v>1</v>
+        <v>3.9390000000000001</v>
       </c>
       <c r="E11">
-        <v>3.9390000000000001</v>
+        <v>3.379</v>
       </c>
       <c r="F11">
-        <f t="shared" si="0"/>
-        <v>-0.7200000000000002</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="G11">
+        <v>3.4980000000000002</v>
+      </c>
+      <c r="H11">
+        <v>3.0830000000000002</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
@@ -6233,20 +7214,25 @@
         <v>3.0739999999999998</v>
       </c>
       <c r="C12">
-        <v>0.49</v>
+        <v>2</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>3.762</v>
       </c>
       <c r="E12">
-        <v>3.762</v>
+        <v>3.2158000000000002</v>
       </c>
       <c r="F12">
-        <f t="shared" si="0"/>
-        <v>-0.68800000000000017</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>3.0489999999999999</v>
+      </c>
+      <c r="G12">
+        <v>3.2879999999999998</v>
+      </c>
+      <c r="H12">
+        <v>2.7170000000000001</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6</v>
       </c>
@@ -6254,20 +7240,25 @@
         <v>2.9449999999999998</v>
       </c>
       <c r="C13">
-        <v>0.48499999999999999</v>
+        <v>3</v>
       </c>
       <c r="D13">
-        <v>3</v>
+        <v>3.5670000000000002</v>
       </c>
       <c r="E13">
-        <v>3.5670000000000002</v>
+        <v>2.831</v>
       </c>
       <c r="F13">
-        <f t="shared" si="0"/>
-        <v>-0.62200000000000033</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.665</v>
+      </c>
+      <c r="G13">
+        <v>2.99</v>
+      </c>
+      <c r="H13">
+        <v>2.2010000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>7</v>
       </c>
@@ -6275,20 +7266,25 @@
         <v>2.8370000000000002</v>
       </c>
       <c r="C14">
-        <v>0.501</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>4</v>
+        <v>3.43</v>
       </c>
       <c r="E14">
-        <v>3.43</v>
+        <v>2.548</v>
       </c>
       <c r="F14">
-        <f t="shared" si="0"/>
-        <v>-0.59299999999999997</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.363</v>
+      </c>
+      <c r="G14">
+        <v>2.7440000000000002</v>
+      </c>
+      <c r="H14">
+        <v>1.829</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>8</v>
       </c>
@@ -6296,20 +7292,25 @@
         <v>2.7309999999999999</v>
       </c>
       <c r="C15">
-        <v>0.48899999999999999</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>5</v>
+        <v>3.32</v>
       </c>
       <c r="E15">
-        <v>3.32</v>
+        <v>2.3170000000000002</v>
       </c>
       <c r="F15">
-        <f t="shared" si="0"/>
-        <v>-0.58899999999999997</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>2.1349999999999998</v>
+      </c>
+      <c r="G15">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H15">
+        <v>1.552</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>9</v>
       </c>
@@ -6317,20 +7318,25 @@
         <v>2.6469999999999998</v>
       </c>
       <c r="C16">
-        <v>0.51100000000000001</v>
+        <v>6</v>
       </c>
       <c r="D16">
-        <v>6</v>
+        <v>3.2330000000000001</v>
       </c>
       <c r="E16">
-        <v>3.2330000000000001</v>
+        <v>2.1240000000000001</v>
       </c>
       <c r="F16">
-        <f t="shared" si="0"/>
-        <v>-0.5860000000000003</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.94</v>
+      </c>
+      <c r="G16">
+        <v>2.3860000000000001</v>
+      </c>
+      <c r="H16">
+        <v>1.347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>10</v>
       </c>
@@ -6338,20 +7344,25 @@
         <v>2.5550000000000002</v>
       </c>
       <c r="C17">
-        <v>0.504</v>
+        <v>7</v>
       </c>
       <c r="D17">
-        <v>7</v>
+        <v>3.1469999999999998</v>
       </c>
       <c r="E17">
-        <v>3.1469999999999998</v>
+        <v>1.966</v>
       </c>
       <c r="F17">
-        <f t="shared" si="0"/>
-        <v>-0.59199999999999964</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.772</v>
+      </c>
+      <c r="G17">
+        <v>2.2450000000000001</v>
+      </c>
+      <c r="H17">
+        <v>1.1859999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>11</v>
       </c>
@@ -6359,20 +7370,25 @@
         <v>2.4860000000000002</v>
       </c>
       <c r="C18">
-        <v>0.5</v>
+        <v>8</v>
       </c>
       <c r="D18">
-        <v>8</v>
+        <v>3.08</v>
       </c>
       <c r="E18">
-        <v>3.08</v>
+        <v>1.84</v>
       </c>
       <c r="F18">
-        <f t="shared" si="0"/>
-        <v>-0.59399999999999986</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.637</v>
+      </c>
+      <c r="G18">
+        <v>2.1240000000000001</v>
+      </c>
+      <c r="H18">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>12</v>
       </c>
@@ -6380,20 +7396,25 @@
         <v>2.41</v>
       </c>
       <c r="C19">
-        <v>0.50700000000000001</v>
+        <v>9</v>
       </c>
       <c r="D19">
-        <v>9</v>
+        <v>3.008</v>
       </c>
       <c r="E19">
-        <v>3.008</v>
+        <v>1.734</v>
       </c>
       <c r="F19">
-        <f t="shared" si="0"/>
-        <v>-0.59799999999999986</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.5169999999999999</v>
+      </c>
+      <c r="G19">
+        <v>2.02</v>
+      </c>
+      <c r="H19">
+        <v>0.96499999999999997</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -6401,20 +7422,25 @@
         <v>2.35</v>
       </c>
       <c r="C20">
-        <v>0.48099999999999998</v>
+        <v>10</v>
       </c>
       <c r="D20">
-        <v>10</v>
+        <v>2.9649999999999999</v>
       </c>
       <c r="E20">
-        <v>2.9649999999999999</v>
+        <v>1.6419999999999999</v>
       </c>
       <c r="F20">
-        <f t="shared" si="0"/>
-        <v>-0.61499999999999977</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.4179999999999999</v>
+      </c>
+      <c r="G20">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="H20">
+        <v>0.82099999999999995</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>14</v>
       </c>
@@ -6422,20 +7448,25 @@
         <v>2.2890000000000001</v>
       </c>
       <c r="C21">
-        <v>0.497</v>
+        <v>11</v>
       </c>
       <c r="D21">
-        <v>11</v>
+        <v>2.911</v>
       </c>
       <c r="E21">
-        <v>2.911</v>
+        <v>1.5680000000000001</v>
       </c>
       <c r="F21">
-        <f t="shared" si="0"/>
-        <v>-0.62199999999999989</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.3320000000000001</v>
+      </c>
+      <c r="G21">
+        <v>1.8420000000000001</v>
+      </c>
+      <c r="H21">
+        <v>0.76900000000000002</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>15</v>
       </c>
@@ -6443,20 +7474,25 @@
         <v>2.2360000000000002</v>
       </c>
       <c r="C22">
-        <v>0.49299999999999999</v>
+        <v>12</v>
       </c>
       <c r="D22">
-        <v>12</v>
+        <v>2.8570000000000002</v>
       </c>
       <c r="E22">
-        <v>2.8570000000000002</v>
+        <v>1.508</v>
       </c>
       <c r="F22">
-        <f t="shared" si="0"/>
-        <v>-0.621</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="G22">
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="H22">
+        <v>0.72799999999999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>16</v>
       </c>
@@ -6464,20 +7500,25 @@
         <v>2.1869999999999998</v>
       </c>
       <c r="C23">
-        <v>0.501</v>
+        <v>13</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>2.7919999999999998</v>
       </c>
       <c r="E23">
-        <v>2.7919999999999998</v>
+        <v>1.4530000000000001</v>
       </c>
       <c r="F23">
-        <f t="shared" si="0"/>
-        <v>-0.60499999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.198</v>
+      </c>
+      <c r="G23">
+        <v>1.698</v>
+      </c>
+      <c r="H23">
+        <v>0.68899999999999995</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>17</v>
       </c>
@@ -6485,20 +7526,25 @@
         <v>2.141</v>
       </c>
       <c r="C24">
-        <v>0.502</v>
+        <v>14</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>2.7490000000000001</v>
       </c>
       <c r="E24">
-        <v>2.7490000000000001</v>
+        <v>1.4019999999999999</v>
       </c>
       <c r="F24">
-        <f t="shared" si="0"/>
-        <v>-0.6080000000000001</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.137</v>
+      </c>
+      <c r="G24">
+        <v>1.637</v>
+      </c>
+      <c r="H24">
+        <v>0.66200000000000003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>18</v>
       </c>
@@ -6506,20 +7552,22 @@
         <v>2.1030000000000002</v>
       </c>
       <c r="C25">
-        <v>0.50600000000000001</v>
+        <v>15</v>
       </c>
       <c r="D25">
-        <v>15</v>
-      </c>
-      <c r="E25">
         <v>2.7029999999999998</v>
       </c>
       <c r="F25">
-        <f t="shared" si="0"/>
-        <v>-0.59999999999999964</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.095</v>
+      </c>
+      <c r="G25">
+        <v>1.5880000000000001</v>
+      </c>
+      <c r="H25">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>19</v>
       </c>
@@ -6527,20 +7575,22 @@
         <v>2.0640000000000001</v>
       </c>
       <c r="C26">
-        <v>0.498</v>
+        <v>16</v>
       </c>
       <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="E26">
         <v>2.6619999999999999</v>
       </c>
       <c r="F26">
-        <f t="shared" si="0"/>
-        <v>-0.59799999999999986</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.048</v>
+      </c>
+      <c r="G26">
+        <v>1.5349999999999999</v>
+      </c>
+      <c r="H26">
+        <v>0.61099999999999999</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -6548,20 +7598,22 @@
         <v>2.028</v>
       </c>
       <c r="C27">
-        <v>0.50600000000000001</v>
+        <v>17</v>
       </c>
       <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27">
         <v>2.6240000000000001</v>
       </c>
       <c r="F27">
-        <f t="shared" si="0"/>
-        <v>-0.59600000000000009</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>1.0149999999999999</v>
+      </c>
+      <c r="G27">
+        <v>1.484</v>
+      </c>
+      <c r="H27">
+        <v>0.59</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>21</v>
       </c>
@@ -6569,20 +7621,22 @@
         <v>1.9970000000000001</v>
       </c>
       <c r="C28">
-        <v>0.49199999999999999</v>
+        <v>18</v>
       </c>
       <c r="D28">
-        <v>18</v>
-      </c>
-      <c r="E28">
         <v>2.581</v>
       </c>
       <c r="F28">
-        <f t="shared" si="0"/>
-        <v>-0.58399999999999985</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.97399999999999998</v>
+      </c>
+      <c r="G28">
+        <v>1.444</v>
+      </c>
+      <c r="H28">
+        <v>0.57599999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>22</v>
       </c>
@@ -6590,20 +7644,22 @@
         <v>1.9590000000000001</v>
       </c>
       <c r="C29">
-        <v>0.497</v>
+        <v>19</v>
       </c>
       <c r="D29">
-        <v>19</v>
-      </c>
-      <c r="E29">
         <v>2.5449999999999999</v>
       </c>
       <c r="F29">
-        <f t="shared" si="0"/>
-        <v>-0.58599999999999985</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.94399999999999995</v>
+      </c>
+      <c r="G29">
+        <v>1.407</v>
+      </c>
+      <c r="H29">
+        <v>0.55700000000000005</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>23</v>
       </c>
@@ -6611,20 +7667,22 @@
         <v>1.9339999999999999</v>
       </c>
       <c r="C30">
-        <v>0.49099999999999999</v>
+        <v>20</v>
       </c>
       <c r="D30">
-        <v>20</v>
-      </c>
-      <c r="E30">
         <v>2.5049999999999999</v>
       </c>
       <c r="F30">
-        <f t="shared" si="0"/>
-        <v>-0.57099999999999995</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.91400000000000003</v>
+      </c>
+      <c r="G30">
+        <v>1.3720000000000001</v>
+      </c>
+      <c r="H30">
+        <v>0.54400000000000004</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>24</v>
       </c>
@@ -6632,20 +7690,22 @@
         <v>1.9019999999999999</v>
       </c>
       <c r="C31">
-        <v>0.502</v>
+        <v>21</v>
       </c>
       <c r="D31">
-        <v>21</v>
-      </c>
-      <c r="E31">
         <v>2.4649999999999999</v>
       </c>
       <c r="F31">
-        <f t="shared" si="0"/>
-        <v>-0.56299999999999994</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.90100000000000002</v>
+      </c>
+      <c r="G31">
+        <v>1.3420000000000001</v>
+      </c>
+      <c r="H31">
+        <v>0.53200000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>25</v>
       </c>
@@ -6653,20 +7713,22 @@
         <v>1.8740000000000001</v>
       </c>
       <c r="C32">
-        <v>0.504</v>
+        <v>22</v>
       </c>
       <c r="D32">
-        <v>22</v>
-      </c>
-      <c r="E32">
         <v>2.431</v>
       </c>
       <c r="F32">
-        <f t="shared" si="0"/>
-        <v>-0.55699999999999994</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.872</v>
+      </c>
+      <c r="G32">
+        <v>1.3049999999999999</v>
+      </c>
+      <c r="H32">
+        <v>0.52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>26</v>
       </c>
@@ -6674,20 +7736,22 @@
         <v>1.857</v>
       </c>
       <c r="C33">
-        <v>0.49</v>
+        <v>23</v>
       </c>
       <c r="D33">
-        <v>23</v>
-      </c>
-      <c r="E33">
         <v>2.4009999999999998</v>
       </c>
       <c r="F33">
-        <f t="shared" si="0"/>
-        <v>-0.54399999999999982</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="G33">
+        <v>1.284</v>
+      </c>
+      <c r="H33">
+        <v>0.51100000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>27</v>
       </c>
@@ -6695,20 +7759,22 @@
         <v>1.835</v>
       </c>
       <c r="C34">
-        <v>0.48399999999999999</v>
+        <v>24</v>
       </c>
       <c r="D34">
-        <v>24</v>
-      </c>
-      <c r="E34">
         <v>2.3650000000000002</v>
       </c>
       <c r="F34">
-        <f t="shared" si="0"/>
-        <v>-0.53000000000000025</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+        <v>0.84</v>
+      </c>
+      <c r="G34">
+        <v>1.2589999999999999</v>
+      </c>
+      <c r="H34">
+        <v>0.50700000000000001</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>28</v>
       </c>
@@ -6716,20 +7782,19 @@
         <v>1.806</v>
       </c>
       <c r="C35">
-        <v>0.501</v>
+        <v>25</v>
       </c>
       <c r="D35">
-        <v>25</v>
-      </c>
-      <c r="E35">
         <v>2.34</v>
       </c>
-      <c r="F35">
-        <f t="shared" si="0"/>
-        <v>-0.53399999999999981</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G35">
+        <v>1.2370000000000001</v>
+      </c>
+      <c r="H35">
+        <v>0.49399999999999999</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>29</v>
       </c>
@@ -6737,20 +7802,19 @@
         <v>1.79</v>
       </c>
       <c r="C36">
-        <v>0.46800000000000003</v>
+        <v>26</v>
       </c>
       <c r="D36">
-        <v>26</v>
-      </c>
-      <c r="E36">
         <v>2.302</v>
       </c>
-      <c r="F36">
-        <f t="shared" si="0"/>
-        <v>-0.51200000000000001</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G36">
+        <v>1.212</v>
+      </c>
+      <c r="H36">
+        <v>0.48699999999999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>30</v>
       </c>
@@ -6758,20 +7822,19 @@
         <v>1.7749999999999999</v>
       </c>
       <c r="C37">
-        <v>0.49399999999999999</v>
+        <v>27</v>
       </c>
       <c r="D37">
-        <v>27</v>
-      </c>
-      <c r="E37">
         <v>2.2749999999999999</v>
       </c>
-      <c r="F37">
-        <f t="shared" si="0"/>
-        <v>-0.5</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G37">
+        <v>1.1879999999999999</v>
+      </c>
+      <c r="H37">
+        <v>0.47799999999999998</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>31</v>
       </c>
@@ -6779,20 +7842,19 @@
         <v>1.756</v>
       </c>
       <c r="C38">
-        <v>0.49299999999999999</v>
+        <v>28</v>
       </c>
       <c r="D38">
-        <v>28</v>
-      </c>
-      <c r="E38">
         <v>2.2589999999999999</v>
       </c>
-      <c r="F38">
-        <f t="shared" si="0"/>
-        <v>-0.50299999999999989</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G38">
+        <v>1.17</v>
+      </c>
+      <c r="H38">
+        <v>0.47099999999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>32</v>
       </c>
@@ -6800,20 +7862,19 @@
         <v>1.7350000000000001</v>
       </c>
       <c r="C39">
-        <v>0.502</v>
+        <v>29</v>
       </c>
       <c r="D39">
-        <v>29</v>
-      </c>
-      <c r="E39">
         <v>2.2250000000000001</v>
       </c>
-      <c r="F39">
-        <f t="shared" si="0"/>
-        <v>-0.49</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G39">
+        <v>1.155</v>
+      </c>
+      <c r="H39">
+        <v>0.46899999999999997</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>33</v>
       </c>
@@ -6821,20 +7882,19 @@
         <v>1.7190000000000001</v>
       </c>
       <c r="C40">
-        <v>0.501</v>
+        <v>30</v>
       </c>
       <c r="D40">
-        <v>30</v>
-      </c>
-      <c r="E40">
         <v>2.198</v>
       </c>
-      <c r="F40">
-        <f t="shared" si="0"/>
-        <v>-0.47899999999999987</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G40">
+        <v>1.135</v>
+      </c>
+      <c r="H40">
+        <v>0.45800000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>34</v>
       </c>
@@ -6842,20 +7902,19 @@
         <v>1.704</v>
       </c>
       <c r="C41">
-        <v>0.502</v>
+        <v>31</v>
       </c>
       <c r="D41">
-        <v>31</v>
-      </c>
-      <c r="E41">
         <v>2.1789999999999998</v>
       </c>
-      <c r="F41">
-        <f t="shared" si="0"/>
-        <v>-0.47499999999999987</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G41">
+        <v>1.1160000000000001</v>
+      </c>
+      <c r="H41">
+        <v>0.45</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>35</v>
       </c>
@@ -6863,20 +7922,19 @@
         <v>1.6830000000000001</v>
       </c>
       <c r="C42">
-        <v>0.502</v>
+        <v>32</v>
       </c>
       <c r="D42">
-        <v>32</v>
-      </c>
-      <c r="E42">
         <v>2.1459999999999999</v>
       </c>
-      <c r="F42">
-        <f t="shared" si="0"/>
-        <v>-0.46299999999999986</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G42">
+        <v>1.1040000000000001</v>
+      </c>
+      <c r="H42">
+        <v>0.44900000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>36</v>
       </c>
@@ -6884,20 +7942,19 @@
         <v>1.6759999999999999</v>
       </c>
       <c r="C43">
-        <v>0.46200000000000002</v>
+        <v>33</v>
       </c>
       <c r="D43">
-        <v>33</v>
-      </c>
-      <c r="E43">
         <v>2.125</v>
       </c>
-      <c r="F43">
-        <f t="shared" si="0"/>
-        <v>-0.44900000000000007</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G43">
+        <v>1.0840000000000001</v>
+      </c>
+      <c r="H43">
+        <v>0.44600000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>37</v>
       </c>
@@ -6905,20 +7962,16 @@
         <v>1.665</v>
       </c>
       <c r="C44">
-        <v>0.498</v>
+        <v>34</v>
       </c>
       <c r="D44">
-        <v>34</v>
-      </c>
-      <c r="E44">
         <v>2.1110000000000002</v>
       </c>
-      <c r="F44">
-        <f t="shared" si="0"/>
-        <v>-0.44600000000000017</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G44">
+        <v>1.079</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>38</v>
       </c>
@@ -6926,20 +7979,16 @@
         <v>1.65</v>
       </c>
       <c r="C45">
-        <v>0.504</v>
+        <v>35</v>
       </c>
       <c r="D45">
-        <v>35</v>
-      </c>
-      <c r="E45">
         <v>2.0819999999999999</v>
       </c>
-      <c r="F45">
-        <f t="shared" si="0"/>
-        <v>-0.43199999999999994</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G45">
+        <v>1.0620000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>39</v>
       </c>
@@ -6947,20 +7996,16 @@
         <v>1.635</v>
       </c>
       <c r="C46">
-        <v>0.502</v>
+        <v>36</v>
       </c>
       <c r="D46">
-        <v>36</v>
-      </c>
-      <c r="E46">
         <v>2.0539999999999998</v>
       </c>
-      <c r="F46">
-        <f t="shared" si="0"/>
-        <v>-0.41899999999999982</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G46">
+        <v>1.0489999999999999</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>40</v>
       </c>
@@ -6968,20 +8013,16 @@
         <v>1.6220000000000001</v>
       </c>
       <c r="C47">
-        <v>0.502</v>
+        <v>37</v>
       </c>
       <c r="D47">
-        <v>37</v>
-      </c>
-      <c r="E47">
         <v>2.0329999999999999</v>
       </c>
-      <c r="F47">
-        <f t="shared" si="0"/>
-        <v>-0.41099999999999981</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G47">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>41</v>
       </c>
@@ -6989,20 +8030,16 @@
         <v>1.613</v>
       </c>
       <c r="C48">
-        <v>0.49199999999999999</v>
+        <v>38</v>
       </c>
       <c r="D48">
-        <v>38</v>
-      </c>
-      <c r="E48">
         <v>2.0259999999999998</v>
       </c>
-      <c r="F48">
-        <f t="shared" si="0"/>
-        <v>-0.41299999999999981</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G48">
+        <v>1.0309999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>42</v>
       </c>
@@ -7010,20 +8047,16 @@
         <v>1.6080000000000001</v>
       </c>
       <c r="C49">
-        <v>0.50600000000000001</v>
+        <v>39</v>
       </c>
       <c r="D49">
-        <v>39</v>
-      </c>
-      <c r="E49">
         <v>2.008</v>
       </c>
-      <c r="F49">
-        <f t="shared" si="0"/>
-        <v>-0.39999999999999991</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G49">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>43</v>
       </c>
@@ -7031,20 +8064,16 @@
         <v>1.585</v>
       </c>
       <c r="C50">
-        <v>0.47199999999999998</v>
+        <v>40</v>
       </c>
       <c r="D50">
-        <v>40</v>
-      </c>
-      <c r="E50">
         <v>1.976</v>
       </c>
-      <c r="F50">
-        <f t="shared" si="0"/>
-        <v>-0.39100000000000001</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G50">
+        <v>1.0009999999999999</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>44</v>
       </c>
@@ -7052,20 +8081,16 @@
         <v>1.5780000000000001</v>
       </c>
       <c r="C51">
-        <v>23.728999999999999</v>
+        <v>41</v>
       </c>
       <c r="D51">
-        <v>41</v>
-      </c>
-      <c r="E51">
         <v>1.9630000000000001</v>
       </c>
-      <c r="F51">
-        <f t="shared" si="0"/>
-        <v>-0.38500000000000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G51">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>45</v>
       </c>
@@ -7073,20 +8098,16 @@
         <v>1.5669999999999999</v>
       </c>
       <c r="C52">
-        <v>0.49099999999999999</v>
+        <v>42</v>
       </c>
       <c r="D52">
-        <v>42</v>
-      </c>
-      <c r="E52">
         <v>1.9419999999999999</v>
       </c>
-      <c r="F52">
-        <f t="shared" si="0"/>
-        <v>-0.375</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G52">
+        <v>0.98799999999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>46</v>
       </c>
@@ -7094,20 +8115,16 @@
         <v>1.56</v>
       </c>
       <c r="C53">
-        <v>0.48099999999999998</v>
+        <v>43</v>
       </c>
       <c r="D53">
-        <v>43</v>
-      </c>
-      <c r="E53">
         <v>1.9319999999999999</v>
       </c>
-      <c r="F53">
-        <f t="shared" si="0"/>
-        <v>-0.37199999999999989</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G53">
+        <v>0.97699999999999998</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>47</v>
       </c>
@@ -7115,20 +8132,16 @@
         <v>1.5449999999999999</v>
       </c>
       <c r="C54">
-        <v>0.49299999999999999</v>
+        <v>44</v>
       </c>
       <c r="D54">
-        <v>44</v>
-      </c>
-      <c r="E54">
         <v>1.909</v>
       </c>
-      <c r="F54">
-        <f t="shared" si="0"/>
-        <v>-0.3640000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G54">
+        <v>0.96799999999999997</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>48</v>
       </c>
@@ -7136,20 +8149,16 @@
         <v>1.5429999999999999</v>
       </c>
       <c r="C55">
-        <v>0.48499999999999999</v>
+        <v>45</v>
       </c>
       <c r="D55">
-        <v>45</v>
-      </c>
-      <c r="E55">
         <v>1.891</v>
       </c>
-      <c r="F55">
-        <f t="shared" si="0"/>
-        <v>-0.34800000000000009</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G55">
+        <v>0.96099999999999997</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>49</v>
       </c>
@@ -7157,20 +8166,16 @@
         <v>1.528</v>
       </c>
       <c r="C56">
-        <v>0.49299999999999999</v>
+        <v>46</v>
       </c>
       <c r="D56">
-        <v>46</v>
-      </c>
-      <c r="E56">
         <v>1.87</v>
       </c>
-      <c r="F56">
-        <f t="shared" si="0"/>
-        <v>-0.34200000000000008</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G56">
+        <v>0.95399999999999996</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>50</v>
       </c>
@@ -7178,20 +8183,16 @@
         <v>1.5289999999999999</v>
       </c>
       <c r="C57">
-        <v>0.51200000000000001</v>
+        <v>47</v>
       </c>
       <c r="D57">
-        <v>47</v>
-      </c>
-      <c r="E57">
         <v>1.86</v>
       </c>
-      <c r="F57">
-        <f t="shared" si="0"/>
-        <v>-0.33100000000000018</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G57">
+        <v>0.94699999999999995</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>51</v>
       </c>
@@ -7199,20 +8200,16 @@
         <v>1.5169999999999999</v>
       </c>
       <c r="C58">
-        <v>0.498</v>
+        <v>48</v>
       </c>
       <c r="D58">
-        <v>48</v>
-      </c>
-      <c r="E58">
         <v>1.849</v>
       </c>
-      <c r="F58">
-        <f t="shared" si="0"/>
-        <v>-0.33200000000000007</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G58">
+        <v>0.93899999999999995</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>52</v>
       </c>
@@ -7220,20 +8217,16 @@
         <v>1.5209999999999999</v>
       </c>
       <c r="C59">
-        <v>0.504</v>
+        <v>49</v>
       </c>
       <c r="D59">
-        <v>49</v>
-      </c>
-      <c r="E59">
         <v>1.825</v>
       </c>
-      <c r="F59">
-        <f t="shared" si="0"/>
-        <v>-0.30400000000000005</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="G59">
+        <v>0.93300000000000005</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>53</v>
       </c>
@@ -7241,20 +8234,13 @@
         <v>1.5049999999999999</v>
       </c>
       <c r="C60">
-        <v>0.5</v>
+        <v>50</v>
       </c>
       <c r="D60">
-        <v>50</v>
-      </c>
-      <c r="E60">
         <v>1.821</v>
       </c>
-      <c r="F60">
-        <f t="shared" si="0"/>
-        <v>-0.31600000000000006</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>54</v>
       </c>
@@ -7262,20 +8248,13 @@
         <v>1.494</v>
       </c>
       <c r="C61">
-        <v>0.498</v>
+        <v>51</v>
       </c>
       <c r="D61">
-        <v>51</v>
-      </c>
-      <c r="E61">
         <v>1.8029999999999999</v>
       </c>
-      <c r="F61">
-        <f t="shared" si="0"/>
-        <v>-0.30899999999999994</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>55</v>
       </c>
@@ -7283,20 +8262,13 @@
         <v>1.4950000000000001</v>
       </c>
       <c r="C62">
-        <v>0.49299999999999999</v>
+        <v>52</v>
       </c>
       <c r="D62">
-        <v>52</v>
-      </c>
-      <c r="E62">
         <v>1.79</v>
       </c>
-      <c r="F62">
-        <f t="shared" si="0"/>
-        <v>-0.29499999999999993</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>56</v>
       </c>
@@ -7304,20 +8276,13 @@
         <v>1.4830000000000001</v>
       </c>
       <c r="C63">
-        <v>0.46899999999999997</v>
+        <v>53</v>
       </c>
       <c r="D63">
-        <v>53</v>
-      </c>
-      <c r="E63">
         <v>1.778</v>
       </c>
-      <c r="F63">
-        <f t="shared" si="0"/>
-        <v>-0.29499999999999993</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>57</v>
       </c>
@@ -7325,20 +8290,13 @@
         <v>1.4810000000000001</v>
       </c>
       <c r="C64">
-        <v>0.495</v>
+        <v>54</v>
       </c>
       <c r="D64">
-        <v>54</v>
-      </c>
-      <c r="E64">
         <v>1.7669999999999999</v>
       </c>
-      <c r="F64">
-        <f t="shared" si="0"/>
-        <v>-0.28599999999999981</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>58</v>
       </c>
@@ -7346,20 +8304,13 @@
         <v>1.4750000000000001</v>
       </c>
       <c r="C65">
-        <v>0.48499999999999999</v>
+        <v>55</v>
       </c>
       <c r="D65">
-        <v>55</v>
-      </c>
-      <c r="E65">
         <v>1.7589999999999999</v>
       </c>
-      <c r="F65">
-        <f t="shared" si="0"/>
-        <v>-0.28399999999999981</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>59</v>
       </c>
@@ -7367,20 +8318,13 @@
         <v>1.462</v>
       </c>
       <c r="C66">
-        <v>0.436</v>
+        <v>56</v>
       </c>
       <c r="D66">
-        <v>56</v>
-      </c>
-      <c r="E66">
         <v>1.738</v>
       </c>
-      <c r="F66">
-        <f t="shared" si="0"/>
-        <v>-0.27600000000000002</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>60</v>
       </c>
@@ -7388,20 +8332,13 @@
         <v>1.456</v>
       </c>
       <c r="C67">
-        <v>0.495</v>
+        <v>57</v>
       </c>
       <c r="D67">
-        <v>57</v>
-      </c>
-      <c r="E67">
         <v>1.726</v>
       </c>
-      <c r="F67">
-        <f t="shared" ref="F67:F121" si="1">B67-E67</f>
-        <v>-0.27</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>61</v>
       </c>
@@ -7409,20 +8346,13 @@
         <v>1.4570000000000001</v>
       </c>
       <c r="C68">
-        <v>0.498</v>
+        <v>58</v>
       </c>
       <c r="D68">
-        <v>58</v>
-      </c>
-      <c r="E68">
         <v>1.7210000000000001</v>
       </c>
-      <c r="F68">
-        <f t="shared" si="1"/>
-        <v>-0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>62</v>
       </c>
@@ -7430,20 +8360,13 @@
         <v>1.4410000000000001</v>
       </c>
       <c r="C69">
-        <v>0.503</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>59</v>
-      </c>
-      <c r="E69">
         <v>1.7050000000000001</v>
       </c>
-      <c r="F69">
-        <f t="shared" si="1"/>
-        <v>-0.26400000000000001</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>63</v>
       </c>
@@ -7451,20 +8374,13 @@
         <v>1.4470000000000001</v>
       </c>
       <c r="C70">
-        <v>0.505</v>
+        <v>60</v>
       </c>
       <c r="D70">
-        <v>60</v>
-      </c>
-      <c r="E70">
         <v>1.698</v>
       </c>
-      <c r="F70">
-        <f t="shared" si="1"/>
-        <v>-0.25099999999999989</v>
-      </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>64</v>
       </c>
@@ -7472,20 +8388,13 @@
         <v>1.444</v>
       </c>
       <c r="C71">
-        <v>0.501</v>
+        <v>61</v>
       </c>
       <c r="D71">
-        <v>61</v>
-      </c>
-      <c r="E71">
         <v>1.681</v>
       </c>
-      <c r="F71">
-        <f t="shared" si="1"/>
-        <v>-0.2370000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>65</v>
       </c>
@@ -7493,20 +8402,13 @@
         <v>1.4390000000000001</v>
       </c>
       <c r="C72">
-        <v>0.50600000000000001</v>
+        <v>62</v>
       </c>
       <c r="D72">
-        <v>62</v>
-      </c>
-      <c r="E72">
         <v>1.6819999999999999</v>
       </c>
-      <c r="F72">
-        <f t="shared" si="1"/>
-        <v>-0.24299999999999988</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>66</v>
       </c>
@@ -7514,20 +8416,13 @@
         <v>1.425</v>
       </c>
       <c r="C73">
-        <v>0.496</v>
+        <v>63</v>
       </c>
       <c r="D73">
-        <v>63</v>
-      </c>
-      <c r="E73">
         <v>1.663</v>
       </c>
-      <c r="F73">
-        <f t="shared" si="1"/>
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>67</v>
       </c>
@@ -7535,20 +8430,13 @@
         <v>1.421</v>
       </c>
       <c r="C74">
-        <v>0.5</v>
+        <v>64</v>
       </c>
       <c r="D74">
-        <v>64</v>
-      </c>
-      <c r="E74">
         <v>1.6539999999999999</v>
       </c>
-      <c r="F74">
-        <f t="shared" si="1"/>
-        <v>-0.23299999999999987</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>68</v>
       </c>
@@ -7556,20 +8444,13 @@
         <v>1.415</v>
       </c>
       <c r="C75">
-        <v>0.502</v>
+        <v>65</v>
       </c>
       <c r="D75">
-        <v>65</v>
-      </c>
-      <c r="E75">
         <v>1.653</v>
       </c>
-      <c r="F75">
-        <f t="shared" si="1"/>
-        <v>-0.23799999999999999</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>69</v>
       </c>
@@ -7577,20 +8458,13 @@
         <v>1.413</v>
       </c>
       <c r="C76">
-        <v>0.50700000000000001</v>
+        <v>66</v>
       </c>
       <c r="D76">
-        <v>66</v>
-      </c>
-      <c r="E76">
         <v>1.633</v>
       </c>
-      <c r="F76">
-        <f t="shared" si="1"/>
-        <v>-0.21999999999999997</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>70</v>
       </c>
@@ -7598,20 +8472,13 @@
         <v>1.401</v>
       </c>
       <c r="C77">
-        <v>0.503</v>
+        <v>67</v>
       </c>
       <c r="D77">
-        <v>67</v>
-      </c>
-      <c r="E77">
         <v>1.6240000000000001</v>
       </c>
-      <c r="F77">
-        <f t="shared" si="1"/>
-        <v>-0.22300000000000009</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>71</v>
       </c>
@@ -7619,20 +8486,13 @@
         <v>1.41</v>
       </c>
       <c r="C78">
-        <v>0.48799999999999999</v>
+        <v>68</v>
       </c>
       <c r="D78">
-        <v>68</v>
-      </c>
-      <c r="E78">
         <v>1.621</v>
       </c>
-      <c r="F78">
-        <f t="shared" si="1"/>
-        <v>-0.21100000000000008</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>72</v>
       </c>
@@ -7640,20 +8500,13 @@
         <v>1.4059999999999999</v>
       </c>
       <c r="C79">
-        <v>0.47899999999999998</v>
+        <v>69</v>
       </c>
       <c r="D79">
-        <v>69</v>
-      </c>
-      <c r="E79">
         <v>1.611</v>
       </c>
-      <c r="F79">
-        <f t="shared" si="1"/>
-        <v>-0.20500000000000007</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>73</v>
       </c>
@@ -7661,416 +8514,321 @@
         <v>1.4</v>
       </c>
       <c r="C80">
-        <v>0.42699999999999999</v>
+        <v>70</v>
       </c>
       <c r="D80">
-        <v>70</v>
-      </c>
-      <c r="E80">
         <v>1.603</v>
       </c>
-      <c r="F80">
-        <f t="shared" si="1"/>
-        <v>-0.20300000000000007</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81">
         <v>74</v>
       </c>
       <c r="B81">
         <v>1.391</v>
       </c>
+      <c r="C81">
+        <v>71</v>
+      </c>
       <c r="D81">
-        <v>71</v>
-      </c>
-      <c r="E81">
         <v>1.603</v>
       </c>
-      <c r="F81">
-        <f t="shared" si="1"/>
-        <v>-0.21199999999999997</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82">
         <v>75</v>
       </c>
       <c r="B82">
         <v>1.389</v>
       </c>
+      <c r="C82">
+        <v>72</v>
+      </c>
       <c r="D82">
-        <v>72</v>
-      </c>
-      <c r="E82">
         <v>1.5880000000000001</v>
       </c>
-      <c r="F82">
-        <f t="shared" si="1"/>
-        <v>-0.19900000000000007</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83">
         <v>76</v>
       </c>
       <c r="B83">
         <v>1.391</v>
       </c>
+      <c r="C83">
+        <v>73</v>
+      </c>
       <c r="D83">
-        <v>73</v>
-      </c>
-      <c r="E83">
         <v>1.577</v>
       </c>
-      <c r="F83">
-        <f t="shared" si="1"/>
-        <v>-0.18599999999999994</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84">
         <v>77</v>
       </c>
       <c r="B84">
         <v>1.38</v>
       </c>
+      <c r="C84">
+        <v>74</v>
+      </c>
       <c r="D84">
-        <v>74</v>
-      </c>
-      <c r="E84">
         <v>1.57</v>
       </c>
-      <c r="F84">
-        <f t="shared" si="1"/>
-        <v>-0.19000000000000017</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85">
         <v>78</v>
       </c>
       <c r="B85">
         <v>1.3720000000000001</v>
       </c>
+      <c r="C85">
+        <v>75</v>
+      </c>
       <c r="D85">
-        <v>75</v>
-      </c>
-      <c r="E85">
         <v>1.569</v>
       </c>
-      <c r="F85">
-        <f t="shared" si="1"/>
-        <v>-0.19699999999999984</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86">
         <v>79</v>
       </c>
       <c r="B86">
         <v>1.3660000000000001</v>
       </c>
+      <c r="C86">
+        <v>76</v>
+      </c>
       <c r="D86">
-        <v>76</v>
-      </c>
-      <c r="E86">
         <v>1.556</v>
       </c>
-      <c r="F86">
-        <f t="shared" si="1"/>
-        <v>-0.18999999999999995</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87">
         <v>80</v>
       </c>
       <c r="B87">
         <v>1.369</v>
       </c>
+      <c r="C87">
+        <v>77</v>
+      </c>
       <c r="D87">
-        <v>77</v>
-      </c>
-      <c r="E87">
         <v>1.5449999999999999</v>
       </c>
-      <c r="F87">
-        <f t="shared" si="1"/>
-        <v>-0.17599999999999993</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88">
         <v>81</v>
       </c>
       <c r="B88">
         <v>1.367</v>
       </c>
+      <c r="C88">
+        <v>78</v>
+      </c>
       <c r="D88">
-        <v>78</v>
-      </c>
-      <c r="E88">
         <v>1.5389999999999999</v>
       </c>
-      <c r="F88">
-        <f t="shared" si="1"/>
-        <v>-0.17199999999999993</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89">
         <v>82</v>
       </c>
       <c r="B89">
         <v>1.3540000000000001</v>
       </c>
+      <c r="C89">
+        <v>79</v>
+      </c>
       <c r="D89">
-        <v>79</v>
-      </c>
-      <c r="E89">
         <v>1.5349999999999999</v>
       </c>
-      <c r="F89">
-        <f t="shared" si="1"/>
-        <v>-0.18099999999999983</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90">
         <v>83</v>
       </c>
       <c r="B90">
         <v>1.3560000000000001</v>
       </c>
+      <c r="C90">
+        <v>80</v>
+      </c>
       <c r="D90">
-        <v>80</v>
-      </c>
-      <c r="E90">
         <v>1.5249999999999999</v>
       </c>
-      <c r="F90">
-        <f t="shared" si="1"/>
-        <v>-0.16899999999999982</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91">
         <v>84</v>
       </c>
       <c r="B91">
         <v>1.351</v>
       </c>
+      <c r="C91">
+        <v>81</v>
+      </c>
       <c r="D91">
-        <v>81</v>
-      </c>
-      <c r="E91">
         <v>1.5189999999999999</v>
       </c>
-      <c r="F91">
-        <f t="shared" si="1"/>
-        <v>-0.16799999999999993</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92">
         <v>85</v>
       </c>
       <c r="B92">
         <v>1.3480000000000001</v>
       </c>
+      <c r="C92">
+        <v>82</v>
+      </c>
       <c r="D92">
-        <v>82</v>
-      </c>
-      <c r="E92">
         <v>1.514</v>
       </c>
-      <c r="F92">
-        <f t="shared" si="1"/>
-        <v>-0.16599999999999993</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93">
         <v>86</v>
       </c>
       <c r="B93">
         <v>1.347</v>
       </c>
+      <c r="C93">
+        <v>83</v>
+      </c>
       <c r="D93">
-        <v>83</v>
-      </c>
-      <c r="E93">
         <v>1.512</v>
       </c>
-      <c r="F93">
-        <f t="shared" si="1"/>
-        <v>-0.16500000000000004</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94">
         <v>87</v>
       </c>
       <c r="B94">
         <v>1.347</v>
       </c>
+      <c r="C94">
+        <v>84</v>
+      </c>
       <c r="D94">
-        <v>84</v>
-      </c>
-      <c r="E94">
         <v>1.502</v>
       </c>
-      <c r="F94">
-        <f t="shared" si="1"/>
-        <v>-0.15500000000000003</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95">
         <v>88</v>
       </c>
       <c r="B95">
         <v>1.3380000000000001</v>
       </c>
+      <c r="C95">
+        <v>85</v>
+      </c>
       <c r="D95">
-        <v>85</v>
-      </c>
-      <c r="E95">
         <v>1.5049999999999999</v>
       </c>
-      <c r="F95">
-        <f t="shared" si="1"/>
-        <v>-0.16699999999999982</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96">
         <v>89</v>
       </c>
       <c r="B96">
         <v>1.333</v>
       </c>
+      <c r="C96">
+        <v>86</v>
+      </c>
       <c r="D96">
-        <v>86</v>
-      </c>
-      <c r="E96">
         <v>1.4930000000000001</v>
       </c>
-      <c r="F96">
-        <f t="shared" si="1"/>
-        <v>-0.16000000000000014</v>
-      </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97">
         <v>90</v>
       </c>
       <c r="B97">
         <v>1.3360000000000001</v>
       </c>
+      <c r="C97">
+        <v>87</v>
+      </c>
       <c r="D97">
-        <v>87</v>
-      </c>
-      <c r="E97">
         <v>1.478</v>
       </c>
-      <c r="F97">
-        <f t="shared" si="1"/>
-        <v>-0.1419999999999999</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98">
         <v>91</v>
       </c>
       <c r="B98">
         <v>1.335</v>
       </c>
+      <c r="C98">
+        <v>88</v>
+      </c>
       <c r="D98">
-        <v>88</v>
-      </c>
-      <c r="E98">
         <v>1.48</v>
       </c>
-      <c r="F98">
-        <f t="shared" si="1"/>
-        <v>-0.14500000000000002</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99">
         <v>92</v>
       </c>
       <c r="B99">
         <v>1.331</v>
       </c>
+      <c r="C99">
+        <v>89</v>
+      </c>
       <c r="D99">
-        <v>89</v>
-      </c>
-      <c r="E99">
         <v>1.478</v>
       </c>
-      <c r="F99">
-        <f t="shared" si="1"/>
-        <v>-0.14700000000000002</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100">
         <v>93</v>
       </c>
       <c r="B100">
         <v>1.3260000000000001</v>
       </c>
+      <c r="C100">
+        <v>90</v>
+      </c>
       <c r="D100">
-        <v>90</v>
-      </c>
-      <c r="E100">
         <v>1.4690000000000001</v>
       </c>
-      <c r="F100">
-        <f t="shared" si="1"/>
-        <v>-0.14300000000000002</v>
-      </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101">
         <v>94</v>
       </c>
       <c r="B101">
         <v>1.3220000000000001</v>
       </c>
+      <c r="C101">
+        <v>91</v>
+      </c>
       <c r="D101">
-        <v>91</v>
-      </c>
-      <c r="E101">
         <v>1.4650000000000001</v>
       </c>
-      <c r="F101">
-        <f t="shared" si="1"/>
-        <v>-0.14300000000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102">
         <v>95</v>
       </c>
       <c r="B102">
         <v>1.323</v>
       </c>
+      <c r="C102">
+        <v>92</v>
+      </c>
       <c r="D102">
-        <v>92</v>
-      </c>
-      <c r="E102">
         <v>1.4610000000000001</v>
       </c>
-      <c r="F102">
-        <f t="shared" si="1"/>
-        <v>-0.13800000000000012</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103">
         <f>A102+1</f>
         <v>96</v>
@@ -8078,727 +8836,651 @@
       <c r="B103">
         <v>1.3169999999999999</v>
       </c>
+      <c r="C103">
+        <v>93</v>
+      </c>
       <c r="D103">
-        <v>93</v>
-      </c>
-      <c r="E103">
         <v>1.454</v>
       </c>
-      <c r="F103">
-        <f t="shared" si="1"/>
-        <v>-0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104">
-        <f t="shared" ref="A104:A130" si="2">A103+1</f>
+        <f t="shared" ref="A104:A130" si="0">A103+1</f>
         <v>97</v>
       </c>
       <c r="B104">
         <v>1.3140000000000001</v>
       </c>
+      <c r="C104">
+        <v>94</v>
+      </c>
       <c r="D104">
-        <v>94</v>
-      </c>
-      <c r="E104">
         <v>1.4510000000000001</v>
       </c>
-      <c r="F104">
-        <f t="shared" si="1"/>
-        <v>-0.13700000000000001</v>
-      </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>98</v>
       </c>
       <c r="B105">
         <v>1.3129999999999999</v>
       </c>
+      <c r="C105">
+        <v>95</v>
+      </c>
       <c r="D105">
-        <v>95</v>
-      </c>
-      <c r="E105">
         <v>1.4419999999999999</v>
       </c>
-      <c r="F105">
-        <f t="shared" si="1"/>
-        <v>-0.129</v>
-      </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>99</v>
       </c>
       <c r="B106">
         <v>1.3140000000000001</v>
       </c>
+      <c r="C106">
+        <v>96</v>
+      </c>
       <c r="D106">
-        <v>96</v>
-      </c>
-      <c r="E106">
         <v>1.4359999999999999</v>
       </c>
-      <c r="F106">
-        <f t="shared" si="1"/>
-        <v>-0.12199999999999989</v>
-      </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>100</v>
       </c>
       <c r="B107">
         <v>1.3049999999999999</v>
       </c>
+      <c r="C107">
+        <v>97</v>
+      </c>
       <c r="D107">
-        <v>97</v>
-      </c>
-      <c r="E107">
         <v>1.4359999999999999</v>
       </c>
-      <c r="F107">
-        <f t="shared" si="1"/>
-        <v>-0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>101</v>
       </c>
       <c r="B108">
         <v>1.3</v>
       </c>
+      <c r="C108">
+        <v>98</v>
+      </c>
       <c r="D108">
-        <v>98</v>
-      </c>
-      <c r="E108">
         <v>1.431</v>
       </c>
-      <c r="F108">
-        <f t="shared" si="1"/>
-        <v>-0.13100000000000001</v>
-      </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>102</v>
       </c>
       <c r="B109">
         <v>1.296</v>
       </c>
+      <c r="C109">
+        <v>111</v>
+      </c>
       <c r="D109">
-        <v>111</v>
-      </c>
-      <c r="E109">
         <v>1.3740000000000001</v>
       </c>
-      <c r="F109">
-        <f t="shared" si="1"/>
-        <v>-7.8000000000000069E-2</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>103</v>
       </c>
       <c r="B110">
         <v>1.2909999999999999</v>
       </c>
+      <c r="C110">
+        <v>112</v>
+      </c>
       <c r="D110">
-        <v>112</v>
-      </c>
-      <c r="E110">
         <v>1.3640000000000001</v>
       </c>
-      <c r="F110">
-        <f t="shared" si="1"/>
-        <v>-7.3000000000000176E-2</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>104</v>
       </c>
       <c r="B111">
         <v>1.298</v>
       </c>
+      <c r="C111">
+        <v>113</v>
+      </c>
       <c r="D111">
-        <v>113</v>
-      </c>
-      <c r="E111">
         <v>1.369</v>
       </c>
-      <c r="F111">
-        <f t="shared" si="1"/>
-        <v>-7.0999999999999952E-2</v>
-      </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>105</v>
       </c>
       <c r="B112">
         <v>1.2949999999999999</v>
       </c>
+      <c r="C112">
+        <v>114</v>
+      </c>
       <c r="D112">
-        <v>114</v>
-      </c>
-      <c r="E112">
         <v>1.357</v>
       </c>
-      <c r="F112">
-        <f t="shared" si="1"/>
-        <v>-6.2000000000000055E-2</v>
-      </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>106</v>
       </c>
       <c r="B113">
         <v>1.2909999999999999</v>
       </c>
+      <c r="C113">
+        <v>115</v>
+      </c>
       <c r="D113">
-        <v>115</v>
-      </c>
-      <c r="E113">
         <v>1.355</v>
       </c>
-      <c r="F113">
-        <f t="shared" si="1"/>
-        <v>-6.4000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>107</v>
       </c>
       <c r="B114">
         <v>1.2849999999999999</v>
       </c>
+      <c r="C114">
+        <v>116</v>
+      </c>
       <c r="D114">
-        <v>116</v>
-      </c>
-      <c r="E114">
         <v>1.355</v>
       </c>
-      <c r="F114">
-        <f t="shared" si="1"/>
-        <v>-7.0000000000000062E-2</v>
-      </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>108</v>
       </c>
       <c r="B115">
         <v>1.284</v>
       </c>
+      <c r="C115">
+        <v>117</v>
+      </c>
       <c r="D115">
-        <v>117</v>
-      </c>
-      <c r="E115">
         <v>1.3540000000000001</v>
       </c>
-      <c r="F115">
-        <f t="shared" si="1"/>
-        <v>-7.0000000000000062E-2</v>
-      </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>109</v>
       </c>
       <c r="B116">
         <v>1.2849999999999999</v>
       </c>
+      <c r="C116">
+        <v>118</v>
+      </c>
       <c r="D116">
-        <v>118</v>
-      </c>
-      <c r="E116">
         <v>1.3480000000000001</v>
       </c>
-      <c r="F116">
-        <f t="shared" si="1"/>
-        <v>-6.3000000000000167E-2</v>
-      </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>110</v>
       </c>
       <c r="B117">
         <v>1.274</v>
       </c>
+      <c r="C117">
+        <v>119</v>
+      </c>
       <c r="D117">
-        <v>119</v>
-      </c>
-      <c r="E117">
         <v>1.343</v>
       </c>
-      <c r="F117">
-        <f t="shared" si="1"/>
-        <v>-6.899999999999995E-2</v>
-      </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>111</v>
       </c>
       <c r="B118">
         <v>1.2789999999999999</v>
       </c>
+      <c r="C118">
+        <v>120</v>
+      </c>
       <c r="D118">
-        <v>120</v>
-      </c>
-      <c r="E118">
         <v>1.347</v>
       </c>
-      <c r="F118">
-        <f t="shared" si="1"/>
-        <v>-6.800000000000006E-2</v>
-      </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>112</v>
       </c>
       <c r="B119">
         <v>1.2789999999999999</v>
       </c>
+      <c r="C119">
+        <v>121</v>
+      </c>
       <c r="D119">
-        <v>121</v>
-      </c>
-      <c r="E119">
         <v>1.335</v>
       </c>
-      <c r="F119">
-        <f t="shared" si="1"/>
-        <v>-5.600000000000005E-2</v>
-      </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>113</v>
       </c>
       <c r="B120">
         <v>1.2769999999999999</v>
       </c>
+      <c r="C120">
+        <v>122</v>
+      </c>
       <c r="D120">
-        <v>122</v>
-      </c>
-      <c r="E120">
         <v>1.3420000000000001</v>
       </c>
-      <c r="F120">
-        <f t="shared" si="1"/>
-        <v>-6.5000000000000169E-2</v>
-      </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>114</v>
       </c>
       <c r="B121">
         <v>1.27</v>
       </c>
+      <c r="C121">
+        <v>123</v>
+      </c>
       <c r="D121">
-        <v>123</v>
-      </c>
-      <c r="E121">
         <v>1.3340000000000001</v>
       </c>
-      <c r="F121">
-        <f t="shared" si="1"/>
-        <v>-6.4000000000000057E-2</v>
-      </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>115</v>
       </c>
       <c r="B122">
         <v>1.272</v>
       </c>
+      <c r="C122">
+        <v>124</v>
+      </c>
       <c r="D122">
-        <v>124</v>
-      </c>
-      <c r="E122">
         <v>1.3280000000000001</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>116</v>
       </c>
+      <c r="C123">
+        <v>125</v>
+      </c>
       <c r="D123">
-        <v>125</v>
-      </c>
-      <c r="E123">
         <v>1.33</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>117</v>
       </c>
+      <c r="C124">
+        <v>126</v>
+      </c>
       <c r="D124">
-        <v>126</v>
-      </c>
-      <c r="E124">
         <v>1.323</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>118</v>
       </c>
+      <c r="C125">
+        <v>127</v>
+      </c>
       <c r="D125">
-        <v>127</v>
-      </c>
-      <c r="E125">
         <v>1.32</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>119</v>
       </c>
+      <c r="C126">
+        <v>128</v>
+      </c>
       <c r="D126">
-        <v>128</v>
-      </c>
-      <c r="E126">
         <v>1.323</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>120</v>
       </c>
+      <c r="C127">
+        <v>129</v>
+      </c>
       <c r="D127">
-        <v>129</v>
-      </c>
-      <c r="E127">
         <v>1.3169999999999999</v>
       </c>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>121</v>
       </c>
+      <c r="C128">
+        <v>130</v>
+      </c>
       <c r="D128">
-        <v>130</v>
-      </c>
-      <c r="E128">
         <v>1.3120000000000001</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>122</v>
       </c>
+      <c r="C129">
+        <v>131</v>
+      </c>
       <c r="D129">
-        <v>131</v>
-      </c>
-      <c r="E129">
         <v>1.3089999999999999</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130">
-        <f t="shared" si="2"/>
+        <f t="shared" si="0"/>
         <v>123</v>
       </c>
+      <c r="C130">
+        <v>132</v>
+      </c>
       <c r="D130">
-        <v>132</v>
-      </c>
-      <c r="E130">
         <v>1.306</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C131">
+        <v>133</v>
+      </c>
       <c r="D131">
-        <v>133</v>
-      </c>
-      <c r="E131">
         <v>1.298</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C132">
+        <f>C131+1</f>
+        <v>134</v>
+      </c>
       <c r="D132">
-        <f>D131+1</f>
-        <v>134</v>
-      </c>
-      <c r="E132">
         <v>1.304</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C133">
+        <f t="shared" ref="C133:C160" si="1">C132+1</f>
+        <v>135</v>
+      </c>
       <c r="D133">
-        <f t="shared" ref="D133:D160" si="3">D132+1</f>
-        <v>135</v>
-      </c>
-      <c r="E133">
         <v>1.2949999999999999</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C134">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
       <c r="D134">
-        <f t="shared" si="3"/>
-        <v>136</v>
-      </c>
-      <c r="E134">
         <v>1.302</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C135">
+        <f t="shared" si="1"/>
+        <v>137</v>
+      </c>
       <c r="D135">
-        <f t="shared" si="3"/>
-        <v>137</v>
-      </c>
-      <c r="E135">
         <v>1.298</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C136">
+        <f t="shared" si="1"/>
+        <v>138</v>
+      </c>
       <c r="D136">
-        <f t="shared" si="3"/>
-        <v>138</v>
-      </c>
-      <c r="E136">
         <v>1.2969999999999999</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C137">
+        <f t="shared" si="1"/>
+        <v>139</v>
+      </c>
       <c r="D137">
-        <f t="shared" si="3"/>
-        <v>139</v>
-      </c>
-      <c r="E137">
         <v>1.2929999999999999</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C138">
+        <f t="shared" si="1"/>
+        <v>140</v>
+      </c>
       <c r="D138">
-        <f t="shared" si="3"/>
-        <v>140</v>
-      </c>
-      <c r="E138">
         <v>1.282</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C139">
+        <f t="shared" si="1"/>
+        <v>141</v>
+      </c>
       <c r="D139">
-        <f t="shared" si="3"/>
-        <v>141</v>
-      </c>
-      <c r="E139">
         <v>1.2809999999999999</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C140">
+        <f t="shared" si="1"/>
+        <v>142</v>
+      </c>
       <c r="D140">
-        <f t="shared" si="3"/>
-        <v>142</v>
-      </c>
-      <c r="E140">
         <v>1.2849999999999999</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C141">
+        <f t="shared" si="1"/>
+        <v>143</v>
+      </c>
       <c r="D141">
-        <f t="shared" si="3"/>
-        <v>143</v>
-      </c>
-      <c r="E141">
         <v>1.282</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C142">
+        <f t="shared" si="1"/>
+        <v>144</v>
+      </c>
       <c r="D142">
-        <f t="shared" si="3"/>
-        <v>144</v>
-      </c>
-      <c r="E142">
         <v>1.2789999999999999</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C143">
+        <f t="shared" si="1"/>
+        <v>145</v>
+      </c>
       <c r="D143">
-        <f t="shared" si="3"/>
-        <v>145</v>
-      </c>
-      <c r="E143">
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C144">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
       <c r="D144">
-        <f t="shared" si="3"/>
-        <v>146</v>
-      </c>
-      <c r="E144">
         <v>1.268</v>
       </c>
     </row>
-    <row r="145" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C145">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
       <c r="D145">
-        <f t="shared" si="3"/>
-        <v>147</v>
-      </c>
-      <c r="E145">
         <v>1.2709999999999999</v>
       </c>
     </row>
-    <row r="146" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C146">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
       <c r="D146">
-        <f t="shared" si="3"/>
-        <v>148</v>
-      </c>
-      <c r="E146">
         <v>1.27</v>
       </c>
     </row>
-    <row r="147" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C147">
+        <f t="shared" si="1"/>
+        <v>149</v>
+      </c>
       <c r="D147">
-        <f t="shared" si="3"/>
-        <v>149</v>
-      </c>
-      <c r="E147">
         <v>1.2649999999999999</v>
       </c>
     </row>
-    <row r="148" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C148">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
       <c r="D148">
-        <f t="shared" si="3"/>
-        <v>150</v>
-      </c>
-      <c r="E148">
         <v>1.27</v>
       </c>
     </row>
-    <row r="149" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C149">
+        <f t="shared" si="1"/>
+        <v>151</v>
+      </c>
       <c r="D149">
-        <f t="shared" si="3"/>
-        <v>151</v>
-      </c>
-      <c r="E149">
         <v>1.2629999999999999</v>
       </c>
     </row>
-    <row r="150" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C150">
+        <f t="shared" si="1"/>
+        <v>152</v>
+      </c>
       <c r="D150">
-        <f t="shared" si="3"/>
-        <v>152</v>
-      </c>
-      <c r="E150">
         <v>1.262</v>
       </c>
     </row>
-    <row r="151" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C151">
+        <f t="shared" si="1"/>
+        <v>153</v>
+      </c>
       <c r="D151">
-        <f t="shared" si="3"/>
-        <v>153</v>
-      </c>
-      <c r="E151">
         <v>1.254</v>
       </c>
     </row>
-    <row r="152" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C152">
+        <f t="shared" si="1"/>
+        <v>154</v>
+      </c>
       <c r="D152">
-        <f t="shared" si="3"/>
-        <v>154</v>
-      </c>
-      <c r="E152">
         <v>1.2509999999999999</v>
       </c>
     </row>
-    <row r="153" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C153">
+        <f t="shared" si="1"/>
+        <v>155</v>
+      </c>
       <c r="D153">
-        <f t="shared" si="3"/>
-        <v>155</v>
-      </c>
-      <c r="E153">
         <v>1.254</v>
       </c>
     </row>
-    <row r="154" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C154">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
       <c r="D154">
-        <f t="shared" si="3"/>
-        <v>156</v>
-      </c>
-      <c r="E154">
         <v>1.254</v>
       </c>
     </row>
-    <row r="155" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C155">
+        <f t="shared" si="1"/>
+        <v>157</v>
+      </c>
       <c r="D155">
-        <f t="shared" si="3"/>
-        <v>157</v>
-      </c>
-      <c r="E155">
         <v>1.2490000000000001</v>
       </c>
     </row>
-    <row r="156" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C156">
+        <f>C155+1</f>
+        <v>158</v>
+      </c>
       <c r="D156">
-        <f>D155+1</f>
-        <v>158</v>
-      </c>
-      <c r="E156">
         <v>1.246</v>
       </c>
     </row>
-    <row r="157" spans="4:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C157">
+        <f t="shared" si="1"/>
+        <v>159</v>
+      </c>
       <c r="D157">
-        <f t="shared" si="3"/>
-        <v>159</v>
-      </c>
-      <c r="E157">
         <v>1.25</v>
       </c>
     </row>
-    <row r="158" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D158">
-        <f t="shared" si="3"/>
+    <row r="158" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C158">
+        <f t="shared" si="1"/>
         <v>160</v>
       </c>
     </row>
-    <row r="159" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D159">
-        <f t="shared" si="3"/>
+    <row r="159" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C159">
+        <f t="shared" si="1"/>
         <v>161</v>
       </c>
     </row>
-    <row r="160" spans="4:5" x14ac:dyDescent="0.55000000000000004">
-      <c r="D160">
-        <f t="shared" si="3"/>
+    <row r="160" spans="3:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="C160">
+        <f t="shared" si="1"/>
         <v>162</v>
       </c>
     </row>
@@ -8806,4 +9488,612 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E27"/>
+  <sheetViews>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1">
+        <v>0.1</v>
+      </c>
+      <c r="B1">
+        <f>1-A1</f>
+        <v>0.9</v>
+      </c>
+      <c r="C1">
+        <f>-A1*LOG(A1,2)</f>
+        <v>0.33219280948873625</v>
+      </c>
+      <c r="D1">
+        <f>-B1*LOG(B1,2)</f>
+        <v>0.13680278410054497</v>
+      </c>
+      <c r="E1">
+        <f>2^(C1+D1)</f>
+        <v>1.3841454884616859</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2">
+        <f>A1+0.05</f>
+        <v>0.15000000000000002</v>
+      </c>
+      <c r="B2">
+        <f t="shared" ref="B2:B27" si="0">1-A2</f>
+        <v>0.85</v>
+      </c>
+      <c r="C2">
+        <f t="shared" ref="C2:C27" si="1">-A2*LOG(A2,2)</f>
+        <v>0.41054483912493095</v>
+      </c>
+      <c r="D2">
+        <f t="shared" ref="D2:D27" si="2">-B2*LOG(B2,2)</f>
+        <v>0.19929546559146952</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E27" si="3">2^(C2+D2)</f>
+        <v>1.5260902731141495</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3">
+        <f t="shared" ref="A3:A18" si="4">A2+0.05</f>
+        <v>0.2</v>
+      </c>
+      <c r="B3">
+        <f t="shared" si="0"/>
+        <v>0.8</v>
+      </c>
+      <c r="C3">
+        <f t="shared" si="1"/>
+        <v>0.46438561897747244</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="2"/>
+        <v>0.25754247590988982</v>
+      </c>
+      <c r="E3">
+        <f t="shared" si="3"/>
+        <v>1.6493848884661177</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4">
+        <f t="shared" si="4"/>
+        <v>0.25</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>0.75</v>
+      </c>
+      <c r="C4">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="2"/>
+        <v>0.31127812445913283</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="3"/>
+        <v>1.7547653506033232</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5">
+        <f t="shared" si="4"/>
+        <v>0.3</v>
+      </c>
+      <c r="B5">
+        <f t="shared" si="0"/>
+        <v>0.7</v>
+      </c>
+      <c r="C5">
+        <f t="shared" si="1"/>
+        <v>0.52108967824986185</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="2"/>
+        <v>0.36020122098083079</v>
+      </c>
+      <c r="E5">
+        <f t="shared" si="3"/>
+        <v>1.8420227750373133</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6">
+        <f t="shared" si="4"/>
+        <v>0.35</v>
+      </c>
+      <c r="B6">
+        <f t="shared" si="0"/>
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <f t="shared" si="1"/>
+        <v>0.53010061049041546</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="2"/>
+        <v>0.40396744488507558</v>
+      </c>
+      <c r="E6">
+        <f t="shared" si="3"/>
+        <v>1.9106560008522475</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7">
+        <f t="shared" si="4"/>
+        <v>0.39999999999999997</v>
+      </c>
+      <c r="B7">
+        <f t="shared" si="0"/>
+        <v>0.60000000000000009</v>
+      </c>
+      <c r="C7">
+        <f t="shared" si="1"/>
+        <v>0.52877123795494496</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="2"/>
+        <v>0.44217935649972362</v>
+      </c>
+      <c r="E7">
+        <f t="shared" si="3"/>
+        <v>1.9601317042077893</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8">
+        <f t="shared" si="4"/>
+        <v>0.44999999999999996</v>
+      </c>
+      <c r="B8">
+        <f t="shared" si="0"/>
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="C8">
+        <f t="shared" si="1"/>
+        <v>0.51840139205027258</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="2"/>
+        <v>0.47437306193753581</v>
+      </c>
+      <c r="E8">
+        <f t="shared" si="3"/>
+        <v>1.9900083082219464</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9">
+        <f t="shared" si="4"/>
+        <v>0.49999999999999994</v>
+      </c>
+      <c r="B9">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+      <c r="C9">
+        <f t="shared" si="1"/>
+        <v>0.5</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="2"/>
+        <v>0.5</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10">
+        <f t="shared" si="4"/>
+        <v>0.54999999999999993</v>
+      </c>
+      <c r="B10">
+        <f t="shared" si="0"/>
+        <v>0.45000000000000007</v>
+      </c>
+      <c r="C10">
+        <f t="shared" si="1"/>
+        <v>0.47437306193753581</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="2"/>
+        <v>0.51840139205027247</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="3"/>
+        <v>1.9900083082219462</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11">
+        <f t="shared" si="4"/>
+        <v>0.6</v>
+      </c>
+      <c r="B11">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+      <c r="C11">
+        <f t="shared" si="1"/>
+        <v>0.44217935649972373</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="2"/>
+        <v>0.52877123795494485</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="3"/>
+        <v>1.9601317042077893</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12">
+        <f t="shared" si="4"/>
+        <v>0.65</v>
+      </c>
+      <c r="B12">
+        <f t="shared" si="0"/>
+        <v>0.35</v>
+      </c>
+      <c r="C12">
+        <f t="shared" si="1"/>
+        <v>0.40396744488507558</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="2"/>
+        <v>0.53010061049041546</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="3"/>
+        <v>1.9106560008522475</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13">
+        <f t="shared" si="4"/>
+        <v>0.70000000000000007</v>
+      </c>
+      <c r="B13">
+        <f t="shared" si="0"/>
+        <v>0.29999999999999993</v>
+      </c>
+      <c r="C13">
+        <f t="shared" si="1"/>
+        <v>0.36020122098083074</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="2"/>
+        <v>0.52108967824986174</v>
+      </c>
+      <c r="E13">
+        <f t="shared" si="3"/>
+        <v>1.842022775037313</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14">
+        <f t="shared" si="4"/>
+        <v>0.75000000000000011</v>
+      </c>
+      <c r="B14">
+        <f t="shared" si="0"/>
+        <v>0.24999999999999989</v>
+      </c>
+      <c r="C14">
+        <f t="shared" si="1"/>
+        <v>0.31127812445913278</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="2"/>
+        <v>0.49999999999999989</v>
+      </c>
+      <c r="E14">
+        <f t="shared" si="3"/>
+        <v>1.7547653506033229</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15">
+        <f t="shared" si="4"/>
+        <v>0.80000000000000016</v>
+      </c>
+      <c r="B15">
+        <f t="shared" si="0"/>
+        <v>0.19999999999999984</v>
+      </c>
+      <c r="C15">
+        <f t="shared" si="1"/>
+        <v>0.25754247590988971</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="2"/>
+        <v>0.46438561897747233</v>
+      </c>
+      <c r="E15">
+        <f t="shared" si="3"/>
+        <v>1.6493848884661175</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16">
+        <f t="shared" si="4"/>
+        <v>0.8500000000000002</v>
+      </c>
+      <c r="B16">
+        <f t="shared" si="0"/>
+        <v>0.1499999999999998</v>
+      </c>
+      <c r="C16">
+        <f t="shared" si="1"/>
+        <v>0.19929546559146927</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="2"/>
+        <v>0.41054483912493073</v>
+      </c>
+      <c r="E16">
+        <f t="shared" si="3"/>
+        <v>1.526090273114149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17">
+        <f t="shared" si="4"/>
+        <v>0.90000000000000024</v>
+      </c>
+      <c r="B17">
+        <f t="shared" si="0"/>
+        <v>9.9999999999999756E-2</v>
+      </c>
+      <c r="C17">
+        <f t="shared" si="1"/>
+        <v>0.13680278410054469</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="2"/>
+        <v>0.33219280948873581</v>
+      </c>
+      <c r="E17">
+        <f t="shared" si="3"/>
+        <v>1.3841454884616853</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18">
+        <f t="shared" si="4"/>
+        <v>0.95000000000000029</v>
+      </c>
+      <c r="B18">
+        <f t="shared" si="0"/>
+        <v>4.9999999999999711E-2</v>
+      </c>
+      <c r="C18">
+        <f t="shared" si="1"/>
+        <v>7.030055237158761E-2</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="2"/>
+        <v>0.21609640474436728</v>
+      </c>
+      <c r="E18">
+        <f t="shared" si="3"/>
+        <v>1.2195906179141707</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19">
+        <f>A18+0.005</f>
+        <v>0.95500000000000029</v>
+      </c>
+      <c r="B19">
+        <f t="shared" si="0"/>
+        <v>4.4999999999999707E-2</v>
+      </c>
+      <c r="C19">
+        <f t="shared" si="1"/>
+        <v>6.3438130460721678E-2</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>0.20132690347495769</v>
+      </c>
+      <c r="E19">
+        <f t="shared" si="3"/>
+        <v>1.2014403597279351</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20">
+        <f t="shared" ref="A20:A27" si="5">A19+0.005</f>
+        <v>0.9600000000000003</v>
+      </c>
+      <c r="B20">
+        <f t="shared" si="0"/>
+        <v>3.9999999999999702E-2</v>
+      </c>
+      <c r="C20">
+        <f t="shared" si="1"/>
+        <v>5.653794149142536E-2</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>0.18575424759098805</v>
+      </c>
+      <c r="E20">
+        <f t="shared" si="3"/>
+        <v>1.1828705428028119</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21">
+        <f t="shared" si="5"/>
+        <v>0.9650000000000003</v>
+      </c>
+      <c r="B21">
+        <f t="shared" si="0"/>
+        <v>3.4999999999999698E-2</v>
+      </c>
+      <c r="C21">
+        <f t="shared" si="1"/>
+        <v>4.9600182168911308E-2</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>0.1692775443700982</v>
+      </c>
+      <c r="E21">
+        <f t="shared" si="3"/>
+        <v>1.1638278917292979</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22">
+        <f t="shared" si="5"/>
+        <v>0.97000000000000031</v>
+      </c>
+      <c r="B22">
+        <f t="shared" si="0"/>
+        <v>2.9999999999999694E-2</v>
+      </c>
+      <c r="C22">
+        <f t="shared" si="1"/>
+        <v>4.2625047159968676E-2</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="2"/>
+        <v>0.15176681067160594</v>
+      </c>
+      <c r="E22">
+        <f t="shared" si="3"/>
+        <v>1.1442417243884382</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23">
+        <f t="shared" si="5"/>
+        <v>0.97500000000000031</v>
+      </c>
+      <c r="B23">
+        <f t="shared" si="0"/>
+        <v>2.4999999999999689E-2</v>
+      </c>
+      <c r="C23">
+        <f t="shared" si="1"/>
+        <v>3.5612729124485723E-2</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="2"/>
+        <v>0.13304820237218284</v>
+      </c>
+      <c r="E23">
+        <f t="shared" si="3"/>
+        <v>1.1240147218730292</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24">
+        <f t="shared" si="5"/>
+        <v>0.98000000000000032</v>
+      </c>
+      <c r="B24">
+        <f t="shared" si="0"/>
+        <v>1.9999999999999685E-2</v>
+      </c>
+      <c r="C24">
+        <f t="shared" si="1"/>
+        <v>2.8563418746325703E-2</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="2"/>
+        <v>0.11287712379549317</v>
+      </c>
+      <c r="E24">
+        <f t="shared" si="3"/>
+        <v>1.1030059264441483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25">
+        <f t="shared" si="5"/>
+        <v>0.98500000000000032</v>
+      </c>
+      <c r="B25">
+        <f t="shared" si="0"/>
+        <v>1.499999999999968E-2</v>
+      </c>
+      <c r="C25">
+        <f t="shared" si="1"/>
+        <v>2.1477304763572749E-2</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="2"/>
+        <v>9.0883405335802053E-2</v>
+      </c>
+      <c r="E25">
+        <f t="shared" si="3"/>
+        <v>1.0809956443938746</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26">
+        <f t="shared" si="5"/>
+        <v>0.99000000000000032</v>
+      </c>
+      <c r="B26">
+        <f t="shared" si="0"/>
+        <v>9.9999999999996758E-3</v>
+      </c>
+      <c r="C26">
+        <f t="shared" si="1"/>
+        <v>1.4354573998163464E-2</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="2"/>
+        <v>6.6438561897745566E-2</v>
+      </c>
+      <c r="E26">
+        <f t="shared" si="3"/>
+        <v>1.0575993064679872</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27">
+        <f t="shared" si="5"/>
+        <v>0.99500000000000033</v>
+      </c>
+      <c r="B27">
+        <f t="shared" si="0"/>
+        <v>4.9999999999996714E-3</v>
+      </c>
+      <c r="C27">
+        <f t="shared" si="1"/>
+        <v>7.1954113849200061E-3</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="2"/>
+        <v>3.8219280948871587E-2</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>1.0319797718504511</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/chatbotp3r3/eloss3and4levelNet.xlsx
+++ b/chatbotp3r3/eloss3and4levelNet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
   <si>
     <t>Epoch</t>
   </si>
@@ -46,6 +46,9 @@
   </si>
   <si>
     <t>L1L512H256B</t>
+  </si>
+  <si>
+    <t>L1L512H256B3V</t>
   </si>
 </sst>
 </file>
@@ -2525,6 +2528,24 @@
                 <c:pt idx="22">
                   <c:v>1.4019999999999999</c:v>
                 </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.36</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.3260000000000001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.29</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.2609999999999999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.2430000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.214</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -3721,6 +3742,27 @@
                 <c:pt idx="57">
                   <c:v>0.93300000000000005</c:v>
                 </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.92600000000000005</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.91700000000000004</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.90700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.89400000000000002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.877</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4116,6 +4158,272 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000011-201F-42F6-8A43-941CE842C49B}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1L512H256B3V</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$43</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="42"/>
+                <c:pt idx="0">
+                  <c:v>4.6890000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.976</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.742</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.581</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.448</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.3570000000000002</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.2589999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.1920000000000002</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.109</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0350000000000001</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.1829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8109999999999999</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.54</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3320000000000001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.1719999999999999</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.052</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.95</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0.877</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.81499999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0.76400000000000001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>0.72099999999999997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0.68500000000000005</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0.65900000000000003</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>0.63200000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-D3FF-4A6E-A28E-73366FF2B4EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -4540,10 +4848,16 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
-            <c:trendlineType val="log"/>
+            <c:trendlineType val="power"/>
             <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.32060801926314619"/>
+                  <c:y val="-0.12284053779827458"/>
+                </c:manualLayout>
+              </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
               <c:spPr>
                 <a:noFill/>
@@ -4958,6 +5272,56 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="power"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0.19773687737480222"/>
+                  <c:y val="-5.0887908390156592E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
           <c:xVal>
             <c:numRef>
               <c:f>Sheet1!$C$2:$C$46</c:f>
@@ -5258,6 +5622,7 @@
       <c:valAx>
         <c:axId val="472216128"/>
         <c:scaling>
+          <c:logBase val="10"/>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6540,16 +6905,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>163607</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>180639</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>491490</xdr:colOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>312197</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>54909</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6578,16 +6943,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>113853</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>624840</xdr:colOff>
-      <xdr:row>42</xdr:row>
-      <xdr:rowOff>15240</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>113853</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6912,15 +7277,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H160"/>
+  <dimension ref="A1:I160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="G60" sqref="G60"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I27" sqref="I27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6945,8 +7310,11 @@
       <c r="H1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.4</v>
       </c>
@@ -6971,8 +7339,11 @@
       <c r="H2">
         <v>4.72</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I2">
+        <v>4.6890000000000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -6997,8 +7368,11 @@
       <c r="H3">
         <v>4.0369999999999999</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I3">
+        <v>3.976</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -7023,8 +7397,11 @@
       <c r="H4">
         <v>3.8239999999999998</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I4">
+        <v>3.742</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -7049,8 +7426,11 @@
       <c r="H5">
         <v>3.649</v>
       </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I5">
+        <v>3.581</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -7075,8 +7455,11 @@
       <c r="H6">
         <v>3.5169999999999999</v>
       </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I6">
+        <v>3.448</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -7101,8 +7484,11 @@
       <c r="H7">
         <v>3.423</v>
       </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I7">
+        <v>3.3570000000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7127,8 +7513,11 @@
       <c r="H8">
         <v>3.3260000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I8">
+        <v>3.2589999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7153,8 +7542,11 @@
       <c r="H9">
         <v>3.2360000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I9">
+        <v>3.1920000000000002</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7179,8 +7571,11 @@
       <c r="H10">
         <v>3.1539999999999999</v>
       </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I10">
+        <v>3.109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7205,8 +7600,11 @@
       <c r="H11">
         <v>3.0830000000000002</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I11">
+        <v>3.0350000000000001</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7231,8 +7629,11 @@
       <c r="H12">
         <v>2.7170000000000001</v>
       </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I12">
+        <v>2.6829999999999998</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7257,8 +7658,11 @@
       <c r="H13">
         <v>2.2010000000000001</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I13">
+        <v>2.1829999999999998</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>7</v>
       </c>
@@ -7283,8 +7687,11 @@
       <c r="H14">
         <v>1.829</v>
       </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I14">
+        <v>1.8109999999999999</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7309,8 +7716,11 @@
       <c r="H15">
         <v>1.552</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I15">
+        <v>1.54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7335,8 +7745,11 @@
       <c r="H16">
         <v>1.347</v>
       </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I16">
+        <v>1.3320000000000001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7361,8 +7774,11 @@
       <c r="H17">
         <v>1.1859999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I17">
+        <v>1.1719999999999999</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>11</v>
       </c>
@@ -7387,8 +7803,11 @@
       <c r="H18">
         <v>1.0620000000000001</v>
       </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I18">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7413,8 +7832,11 @@
       <c r="H19">
         <v>0.96499999999999997</v>
       </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I19">
+        <v>0.95</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -7439,8 +7861,11 @@
       <c r="H20">
         <v>0.82099999999999995</v>
       </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I20">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>14</v>
       </c>
@@ -7465,8 +7890,11 @@
       <c r="H21">
         <v>0.76900000000000002</v>
       </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I21">
+        <v>0.81499999999999995</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>15</v>
       </c>
@@ -7491,8 +7919,11 @@
       <c r="H22">
         <v>0.72799999999999998</v>
       </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I22">
+        <v>0.76400000000000001</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>16</v>
       </c>
@@ -7517,8 +7948,11 @@
       <c r="H23">
         <v>0.68899999999999995</v>
       </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I23">
+        <v>0.72099999999999997</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>17</v>
       </c>
@@ -7543,8 +7977,11 @@
       <c r="H24">
         <v>0.66200000000000003</v>
       </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I24">
+        <v>0.68500000000000005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>18</v>
       </c>
@@ -7557,6 +7994,9 @@
       <c r="D25">
         <v>2.7029999999999998</v>
       </c>
+      <c r="E25">
+        <v>1.36</v>
+      </c>
       <c r="F25">
         <v>1.095</v>
       </c>
@@ -7566,8 +8006,11 @@
       <c r="H25">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I25">
+        <v>0.65900000000000003</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>19</v>
       </c>
@@ -7580,6 +8023,9 @@
       <c r="D26">
         <v>2.6619999999999999</v>
       </c>
+      <c r="E26">
+        <v>1.3260000000000001</v>
+      </c>
       <c r="F26">
         <v>1.048</v>
       </c>
@@ -7589,8 +8035,11 @@
       <c r="H26">
         <v>0.61099999999999999</v>
       </c>
-    </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I26">
+        <v>0.63200000000000001</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -7603,6 +8052,9 @@
       <c r="D27">
         <v>2.6240000000000001</v>
       </c>
+      <c r="E27">
+        <v>1.29</v>
+      </c>
       <c r="F27">
         <v>1.0149999999999999</v>
       </c>
@@ -7613,7 +8065,7 @@
         <v>0.59</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>21</v>
       </c>
@@ -7626,6 +8078,9 @@
       <c r="D28">
         <v>2.581</v>
       </c>
+      <c r="E28">
+        <v>1.2609999999999999</v>
+      </c>
       <c r="F28">
         <v>0.97399999999999998</v>
       </c>
@@ -7636,7 +8091,7 @@
         <v>0.57599999999999996</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>22</v>
       </c>
@@ -7649,6 +8104,9 @@
       <c r="D29">
         <v>2.5449999999999999</v>
       </c>
+      <c r="E29">
+        <v>1.2430000000000001</v>
+      </c>
       <c r="F29">
         <v>0.94399999999999995</v>
       </c>
@@ -7659,7 +8117,7 @@
         <v>0.55700000000000005</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>23</v>
       </c>
@@ -7672,6 +8130,9 @@
       <c r="D30">
         <v>2.5049999999999999</v>
       </c>
+      <c r="E30">
+        <v>1.214</v>
+      </c>
       <c r="F30">
         <v>0.91400000000000003</v>
       </c>
@@ -7682,7 +8143,7 @@
         <v>0.54400000000000004</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>24</v>
       </c>
@@ -7705,7 +8166,7 @@
         <v>0.53200000000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>25</v>
       </c>
@@ -8239,6 +8700,9 @@
       <c r="D60">
         <v>1.821</v>
       </c>
+      <c r="G60">
+        <v>0.92600000000000005</v>
+      </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
@@ -8253,6 +8717,9 @@
       <c r="D61">
         <v>1.8029999999999999</v>
       </c>
+      <c r="G61">
+        <v>0.91700000000000004</v>
+      </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
@@ -8267,6 +8734,9 @@
       <c r="D62">
         <v>1.79</v>
       </c>
+      <c r="G62">
+        <v>0.90700000000000003</v>
+      </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
@@ -8281,6 +8751,9 @@
       <c r="D63">
         <v>1.778</v>
       </c>
+      <c r="G63">
+        <v>0.9</v>
+      </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
@@ -8295,8 +8768,11 @@
       <c r="D64">
         <v>1.7669999999999999</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="G64">
+        <v>0.89400000000000002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A65">
         <v>58</v>
       </c>
@@ -8309,8 +8785,11 @@
       <c r="D65">
         <v>1.7589999999999999</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="G65">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A66">
         <v>59</v>
       </c>
@@ -8323,8 +8802,11 @@
       <c r="D66">
         <v>1.738</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="G66">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A67">
         <v>60</v>
       </c>
@@ -8338,7 +8820,7 @@
         <v>1.726</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A68">
         <v>61</v>
       </c>
@@ -8352,7 +8834,7 @@
         <v>1.7210000000000001</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A69">
         <v>62</v>
       </c>
@@ -8366,7 +8848,7 @@
         <v>1.7050000000000001</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A70">
         <v>63</v>
       </c>
@@ -8380,7 +8862,7 @@
         <v>1.698</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A71">
         <v>64</v>
       </c>
@@ -8394,7 +8876,7 @@
         <v>1.681</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A72">
         <v>65</v>
       </c>
@@ -8408,7 +8890,7 @@
         <v>1.6819999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A73">
         <v>66</v>
       </c>
@@ -8422,7 +8904,7 @@
         <v>1.663</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A74">
         <v>67</v>
       </c>
@@ -8436,7 +8918,7 @@
         <v>1.6539999999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A75">
         <v>68</v>
       </c>
@@ -8450,7 +8932,7 @@
         <v>1.653</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A76">
         <v>69</v>
       </c>
@@ -8464,7 +8946,7 @@
         <v>1.633</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A77">
         <v>70</v>
       </c>
@@ -8478,7 +8960,7 @@
         <v>1.6240000000000001</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A78">
         <v>71</v>
       </c>
@@ -8492,7 +8974,7 @@
         <v>1.621</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A79">
         <v>72</v>
       </c>
@@ -8506,7 +8988,7 @@
         <v>1.611</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A80">
         <v>73</v>
       </c>

--- a/chatbotp3r3/eloss3and4levelNet.xlsx
+++ b/chatbotp3r3/eloss3and4levelNet.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="9">
   <si>
     <t>Epoch</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>L1L512H256B3V</t>
+  </si>
+  <si>
+    <t>L1L512H256Bv1</t>
   </si>
 </sst>
 </file>
@@ -4417,6 +4420,30 @@
                 <c:pt idx="24">
                   <c:v>0.63200000000000001</c:v>
                 </c:pt>
+                <c:pt idx="25">
+                  <c:v>0.60899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>0.58799999999999997</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>0.57099999999999995</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>0.55800000000000005</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>0.54400000000000004</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>0.53700000000000003</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.52300000000000002</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.51300000000000001</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:yVal>
@@ -4424,6 +4451,377 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-D3FF-4A6E-A28E-73366FF2B4EF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>L1L512H256Bv1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="25400" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2">
+                    <a:lumMod val="60000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$C$2:$C$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.6</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.7</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.8</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.9</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>50</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$60</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="59"/>
+                <c:pt idx="0">
+                  <c:v>4.6959999999999997</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.8090000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.552</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3.4249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.323</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.242</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3.133</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.0670000000000002</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>3.0259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.8</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.4689999999999999</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.21</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0089999999999999</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.847</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7110000000000001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6060000000000001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2210000000000001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.1859999999999999</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.153</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.123</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.099</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.0740000000000001</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.0529999999999999</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.03</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.0129999999999999</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>0.998</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>0.97</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>0.95499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>0.94</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>0.93</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>0.92200000000000004</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>0.91100000000000003</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>0.89200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>0.88800000000000001</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.879</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.873</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.86699999999999999</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.85599999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.85299999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.84799999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.84299999999999997</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.83499999999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-D3FF-4A6E-A28E-73366FF2B4EF}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6905,16 +7303,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>163607</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>180639</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>396689</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>108922</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>312197</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>545280</xdr:colOff>
       <xdr:row>23</xdr:row>
-      <xdr:rowOff>54909</xdr:rowOff>
+      <xdr:rowOff>166968</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6943,16 +7341,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>259976</xdr:colOff>
       <xdr:row>24</xdr:row>
-      <xdr:rowOff>113853</xdr:rowOff>
+      <xdr:rowOff>163159</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>320040</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>351417</xdr:colOff>
       <xdr:row>39</xdr:row>
-      <xdr:rowOff>113853</xdr:rowOff>
+      <xdr:rowOff>163159</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7277,15 +7675,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I160"/>
+  <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7313,8 +7711,11 @@
       <c r="I1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>0.4</v>
       </c>
@@ -7342,8 +7743,11 @@
       <c r="I2">
         <v>4.6890000000000001</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J2">
+        <v>4.6959999999999997</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>0.5</v>
       </c>
@@ -7371,8 +7775,11 @@
       <c r="I3">
         <v>3.976</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J3">
+        <v>3.8090000000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>0.6</v>
       </c>
@@ -7400,8 +7807,11 @@
       <c r="I4">
         <v>3.742</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J4">
+        <v>3.552</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>0.7</v>
       </c>
@@ -7429,8 +7839,11 @@
       <c r="I5">
         <v>3.581</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J5">
+        <v>3.4249999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>0.8</v>
       </c>
@@ -7458,8 +7871,11 @@
       <c r="I6">
         <v>3.448</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J6">
+        <v>3.323</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>0.9</v>
       </c>
@@ -7487,8 +7903,11 @@
       <c r="I7">
         <v>3.3570000000000002</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J7">
+        <v>3.242</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>1</v>
       </c>
@@ -7516,8 +7935,11 @@
       <c r="I8">
         <v>3.2589999999999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J8">
+        <v>3.1859999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>2</v>
       </c>
@@ -7545,8 +7967,11 @@
       <c r="I9">
         <v>3.1920000000000002</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J9">
+        <v>3.133</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>3</v>
       </c>
@@ -7574,8 +7999,11 @@
       <c r="I10">
         <v>3.109</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J10">
+        <v>3.0670000000000002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>4</v>
       </c>
@@ -7603,8 +8031,11 @@
       <c r="I11">
         <v>3.0350000000000001</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J11">
+        <v>3.0259999999999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>5</v>
       </c>
@@ -7632,8 +8063,11 @@
       <c r="I12">
         <v>2.6829999999999998</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J12">
+        <v>2.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>6</v>
       </c>
@@ -7661,8 +8095,11 @@
       <c r="I13">
         <v>2.1829999999999998</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J13">
+        <v>2.4689999999999999</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>7</v>
       </c>
@@ -7690,8 +8127,11 @@
       <c r="I14">
         <v>1.8109999999999999</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J14">
+        <v>2.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>8</v>
       </c>
@@ -7719,8 +8159,11 @@
       <c r="I15">
         <v>1.54</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J15">
+        <v>2.0089999999999999</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>9</v>
       </c>
@@ -7748,8 +8191,11 @@
       <c r="I16">
         <v>1.3320000000000001</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J16">
+        <v>1.847</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>10</v>
       </c>
@@ -7777,8 +8223,11 @@
       <c r="I17">
         <v>1.1719999999999999</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J17">
+        <v>1.7110000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>11</v>
       </c>
@@ -7806,8 +8255,11 @@
       <c r="I18">
         <v>1.052</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J18">
+        <v>1.6060000000000001</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>12</v>
       </c>
@@ -7836,7 +8288,7 @@
         <v>0.95</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>13</v>
       </c>
@@ -7865,7 +8317,7 @@
         <v>0.877</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>14</v>
       </c>
@@ -7894,7 +8346,7 @@
         <v>0.81499999999999995</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>15</v>
       </c>
@@ -7923,7 +8375,7 @@
         <v>0.76400000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A23">
         <v>16</v>
       </c>
@@ -7952,7 +8404,7 @@
         <v>0.72099999999999997</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A24">
         <v>17</v>
       </c>
@@ -7980,8 +8432,11 @@
       <c r="I24">
         <v>0.68500000000000005</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J24">
+        <v>1.2210000000000001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A25">
         <v>18</v>
       </c>
@@ -8009,8 +8464,11 @@
       <c r="I25">
         <v>0.65900000000000003</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J25">
+        <v>1.1859999999999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A26">
         <v>19</v>
       </c>
@@ -8038,8 +8496,11 @@
       <c r="I26">
         <v>0.63200000000000001</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="J26">
+        <v>1.153</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A27">
         <v>20</v>
       </c>
@@ -8064,8 +8525,14 @@
       <c r="H27">
         <v>0.59</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I27">
+        <v>0.60899999999999999</v>
+      </c>
+      <c r="J27">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A28">
         <v>21</v>
       </c>
@@ -8090,8 +8557,14 @@
       <c r="H28">
         <v>0.57599999999999996</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I28">
+        <v>0.58799999999999997</v>
+      </c>
+      <c r="J28">
+        <v>1.099</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A29">
         <v>22</v>
       </c>
@@ -8116,8 +8589,14 @@
       <c r="H29">
         <v>0.55700000000000005</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I29">
+        <v>0.57099999999999995</v>
+      </c>
+      <c r="J29">
+        <v>1.0740000000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A30">
         <v>23</v>
       </c>
@@ -8142,8 +8621,14 @@
       <c r="H30">
         <v>0.54400000000000004</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I30">
+        <v>0.55800000000000005</v>
+      </c>
+      <c r="J30">
+        <v>1.0529999999999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A31">
         <v>24</v>
       </c>
@@ -8165,8 +8650,14 @@
       <c r="H31">
         <v>0.53200000000000003</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.55000000000000004">
+      <c r="I31">
+        <v>0.54400000000000004</v>
+      </c>
+      <c r="J31">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A32">
         <v>25</v>
       </c>
@@ -8188,8 +8679,14 @@
       <c r="H32">
         <v>0.52</v>
       </c>
-    </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I32">
+        <v>0.53700000000000003</v>
+      </c>
+      <c r="J32">
+        <v>1.0129999999999999</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A33">
         <v>26</v>
       </c>
@@ -8211,8 +8708,14 @@
       <c r="H33">
         <v>0.51100000000000001</v>
       </c>
-    </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I33">
+        <v>0.52300000000000002</v>
+      </c>
+      <c r="J33">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A34">
         <v>27</v>
       </c>
@@ -8234,8 +8737,14 @@
       <c r="H34">
         <v>0.50700000000000001</v>
       </c>
-    </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="I34">
+        <v>0.51300000000000001</v>
+      </c>
+      <c r="J34">
+        <v>0.97</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A35">
         <v>28</v>
       </c>
@@ -8254,8 +8763,11 @@
       <c r="H35">
         <v>0.49399999999999999</v>
       </c>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J35">
+        <v>0.95499999999999996</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A36">
         <v>29</v>
       </c>
@@ -8274,8 +8786,11 @@
       <c r="H36">
         <v>0.48699999999999999</v>
       </c>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J36">
+        <v>0.94</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A37">
         <v>30</v>
       </c>
@@ -8294,8 +8809,11 @@
       <c r="H37">
         <v>0.47799999999999998</v>
       </c>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J37">
+        <v>0.93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A38">
         <v>31</v>
       </c>
@@ -8314,8 +8832,11 @@
       <c r="H38">
         <v>0.47099999999999997</v>
       </c>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J38">
+        <v>0.92200000000000004</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A39">
         <v>32</v>
       </c>
@@ -8334,8 +8855,11 @@
       <c r="H39">
         <v>0.46899999999999997</v>
       </c>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J39">
+        <v>0.91100000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A40">
         <v>33</v>
       </c>
@@ -8354,8 +8878,11 @@
       <c r="H40">
         <v>0.45800000000000002</v>
       </c>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J40">
+        <v>0.89200000000000002</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A41">
         <v>34</v>
       </c>
@@ -8374,8 +8901,11 @@
       <c r="H41">
         <v>0.45</v>
       </c>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J41">
+        <v>0.88800000000000001</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A42">
         <v>35</v>
       </c>
@@ -8394,8 +8924,11 @@
       <c r="H42">
         <v>0.44900000000000001</v>
       </c>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J42">
+        <v>0.879</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A43">
         <v>36</v>
       </c>
@@ -8414,8 +8947,11 @@
       <c r="H43">
         <v>0.44600000000000001</v>
       </c>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J43">
+        <v>0.873</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A44">
         <v>37</v>
       </c>
@@ -8431,8 +8967,11 @@
       <c r="G44">
         <v>1.079</v>
       </c>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J44">
+        <v>0.86699999999999999</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A45">
         <v>38</v>
       </c>
@@ -8448,8 +8987,11 @@
       <c r="G45">
         <v>1.0620000000000001</v>
       </c>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J45">
+        <v>0.85599999999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A46">
         <v>39</v>
       </c>
@@ -8465,8 +9007,11 @@
       <c r="G46">
         <v>1.0489999999999999</v>
       </c>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J46">
+        <v>0.85299999999999998</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A47">
         <v>40</v>
       </c>
@@ -8482,8 +9027,11 @@
       <c r="G47">
         <v>1.04</v>
       </c>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.55000000000000004">
+      <c r="J47">
+        <v>0.84799999999999998</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A48">
         <v>41</v>
       </c>
@@ -8499,8 +9047,11 @@
       <c r="G48">
         <v>1.0309999999999999</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="J48">
+        <v>0.84299999999999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A49">
         <v>42</v>
       </c>
@@ -8516,8 +9067,11 @@
       <c r="G49">
         <v>1.02</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="J49">
+        <v>0.83499999999999996</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A50">
         <v>43</v>
       </c>
@@ -8534,7 +9088,7 @@
         <v>1.0009999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A51">
         <v>44</v>
       </c>
@@ -8551,7 +9105,7 @@
         <v>0.995</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A52">
         <v>45</v>
       </c>
@@ -8568,7 +9122,7 @@
         <v>0.98799999999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A53">
         <v>46</v>
       </c>
@@ -8585,7 +9139,7 @@
         <v>0.97699999999999998</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A54">
         <v>47</v>
       </c>
@@ -8602,7 +9156,7 @@
         <v>0.96799999999999997</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A55">
         <v>48</v>
       </c>
@@ -8619,7 +9173,7 @@
         <v>0.96099999999999997</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A56">
         <v>49</v>
       </c>
@@ -8636,7 +9190,7 @@
         <v>0.95399999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A57">
         <v>50</v>
       </c>
@@ -8653,7 +9207,7 @@
         <v>0.94699999999999995</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A58">
         <v>51</v>
       </c>
@@ -8670,7 +9224,7 @@
         <v>0.93899999999999995</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A59">
         <v>52</v>
       </c>
@@ -8687,7 +9241,7 @@
         <v>0.93300000000000005</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A60">
         <v>53</v>
       </c>
@@ -8704,7 +9258,7 @@
         <v>0.92600000000000005</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A61">
         <v>54</v>
       </c>
@@ -8721,7 +9275,7 @@
         <v>0.91700000000000004</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A62">
         <v>55</v>
       </c>
@@ -8738,7 +9292,7 @@
         <v>0.90700000000000003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A63">
         <v>56</v>
       </c>
@@ -8755,7 +9309,7 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:10" x14ac:dyDescent="0.55000000000000004">
       <c r="A64">
         <v>57</v>
       </c>

--- a/chatbotp3r3/eloss3and4levelNet.xlsx
+++ b/chatbotp3r3/eloss3and4levelNet.xlsx
@@ -4814,6 +4814,9 @@
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>0.83499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.83199999999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -7677,8 +7680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J160"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -9086,6 +9089,9 @@
       </c>
       <c r="G50">
         <v>1.0009999999999999</v>
+      </c>
+      <c r="J50">
+        <v>0.83199999999999996</v>
       </c>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.55000000000000004">
